--- a/AMITT_MASTER_DATA/AMITT_FRAMEWORKS_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_FRAMEWORKS_MASTER.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Dropbox/SJT_Projects_current/AMITT/CODE_AND_DATA/github_cogseccollab_AMITT/AMITT_MASTER_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E43CE5-34D2-2746-8182-271C02066A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73A4AA0-D498-484C-AB52-B0187ECC0156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3000" yWindow="-26920" windowWidth="43120" windowHeight="25280" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="500" windowWidth="29860" windowHeight="20680" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADMIN_README" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="1612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2893" uniqueCount="1624">
   <si>
     <t>MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -2589,12 +2589,6 @@
     <t xml:space="preserve">This is passive.  Includes promoting civility as an identity that people will defend. </t>
   </si>
   <si>
-    <t>Playbook 1: Recruit respected thought leaders to model behavior
-Playbook 2: Feature established respected thought leaders to model behavior
-Playbook 3: Promote dialog from communities with disparate viewpoints
-Playbook 4: Establish facilitation guidelines for "civil" interaction.</t>
-  </si>
-  <si>
     <t>D7 Deter</t>
   </si>
   <si>
@@ -2648,10 +2642,6 @@
   </si>
   <si>
     <t>Create competing narratives. Included "Facilitate State Propaganda" as diluting the narrative could have an effect on the pro-state narrative used by volunteers, or lower their involvement.</t>
-  </si>
-  <si>
-    <t>Playbook 1: Create multiple versions of the narrative and amplify. 
-Playbook 2: Dissect narrative, piecemeal the components and then amplify</t>
   </si>
   <si>
     <t>CAVEAT: some element of disinformation is simply filling the information space with so much data that it overwhelms people and they shutdown. Any swarm-counter-narrative needs to be cautious of this outcome.</t>
@@ -4728,12 +4718,6 @@
     <t>Reduce the resources available to disinformation creators</t>
   </si>
   <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>viewpoint</t>
-  </si>
-  <si>
     <t>A001</t>
   </si>
   <si>
@@ -4743,9 +4727,6 @@
     <t>Person who can wrangle data, implement machine learning algorithms etc</t>
   </si>
   <si>
-    <t>both</t>
-  </si>
-  <si>
     <t>A002</t>
   </si>
   <si>
@@ -4753,9 +4734,6 @@
   </si>
   <si>
     <t>Person being targeted by disinformation campaign</t>
-  </si>
-  <si>
-    <t>blue</t>
   </si>
   <si>
     <t>A003</t>
@@ -6300,6 +6278,70 @@
   </si>
   <si>
     <t xml:space="preserve">We have no idea what this means.  Is it something to do with the way a viral story spreads? </t>
+  </si>
+  <si>
+    <t>A001 - Nonprofit
+A002 - Civil Society
+A003 - Government
+A004 - Academic
+A005 - Activist
+A006 - General Public
+A007 - Social Media Company
+A008 - Other Tech Company
+A009 - Other Company
+A010 - Media</t>
+  </si>
+  <si>
+    <t>A002 - Civil Society</t>
+  </si>
+  <si>
+    <t>A006 - General Public</t>
+  </si>
+  <si>
+    <t>A003 - Government</t>
+  </si>
+  <si>
+    <t>A010 - Media</t>
+  </si>
+  <si>
+    <t>A009 - Other Company</t>
+  </si>
+  <si>
+    <t>A008 - Other Tech Company</t>
+  </si>
+  <si>
+    <t>A007 - Social Media Company</t>
+  </si>
+  <si>
+    <t>F01 - AMITT Red
+F02 - AMITT Blue</t>
+  </si>
+  <si>
+    <t>F02 - AMITT Blue</t>
+  </si>
+  <si>
+    <t>sector_ids</t>
+  </si>
+  <si>
+    <t>framework_ids</t>
+  </si>
+  <si>
+    <t>Playbook 1: Recruit respected thought leaders to model behavior</t>
+  </si>
+  <si>
+    <t>Playbook 2: Feature established respected thought leaders to model behavior</t>
+  </si>
+  <si>
+    <t>Playbook 3: Promote dialog from communities with disparate viewpoints</t>
+  </si>
+  <si>
+    <t>Playbook 4: Establish facilitation guidelines for "civil" interaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Playbook 1: Create multiple versions of the narrative and amplify. </t>
+  </si>
+  <si>
+    <t>Playbook 2: Dissect narrative, piecemeal the components and then amplify</t>
   </si>
 </sst>
 </file>
@@ -6600,7 +6642,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6871,6 +6913,15 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7706,7 +7757,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>57</v>
@@ -7720,13 +7771,13 @@
     </row>
     <row r="2" spans="1:4" ht="46.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>1183</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>1185</v>
       </c>
       <c r="D2" s="24" t="str">
         <f t="shared" ref="D2:D8" si="0">A2&amp;" - "&amp;B2</f>
@@ -7735,13 +7786,13 @@
     </row>
     <row r="3" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>1186</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>1188</v>
       </c>
       <c r="D3" s="24" t="str">
         <f t="shared" si="0"/>
@@ -7750,13 +7801,13 @@
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>1189</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C4" s="55" t="s">
-        <v>1191</v>
       </c>
       <c r="D4" s="24" t="str">
         <f t="shared" si="0"/>
@@ -7765,13 +7816,13 @@
     </row>
     <row r="5" spans="1:4" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>1192</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>1194</v>
       </c>
       <c r="D5" s="24" t="str">
         <f t="shared" si="0"/>
@@ -7780,13 +7831,13 @@
     </row>
     <row r="6" spans="1:4" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>1195</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>1197</v>
       </c>
       <c r="D6" s="24" t="str">
         <f t="shared" si="0"/>
@@ -7795,13 +7846,13 @@
     </row>
     <row r="7" spans="1:4" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>1198</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>1200</v>
       </c>
       <c r="D7" s="24" t="str">
         <f t="shared" si="0"/>
@@ -7810,13 +7861,13 @@
     </row>
     <row r="8" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>1201</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>1203</v>
       </c>
       <c r="D8" s="24" t="str">
         <f t="shared" si="0"/>
@@ -7854,7 +7905,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>57</v>
@@ -7869,13 +7920,13 @@
     </row>
     <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="67" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C2" s="68" t="s">
         <v>1204</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>1205</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>1206</v>
       </c>
       <c r="D2" s="68" t="str">
         <f t="shared" ref="D2:D15" si="0">A2&amp;" - "&amp;B2</f>
@@ -7885,13 +7936,13 @@
     </row>
     <row r="3" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="67" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>1207</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>1208</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>1209</v>
       </c>
       <c r="D3" s="68" t="str">
         <f t="shared" si="0"/>
@@ -7901,13 +7952,13 @@
     </row>
     <row r="4" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B4" s="68" t="s">
         <v>671</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D4" s="68" t="str">
         <f t="shared" si="0"/>
@@ -7917,13 +7968,13 @@
     </row>
     <row r="5" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="67" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C5" s="68" t="s">
         <v>1212</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>1214</v>
       </c>
       <c r="D5" s="68" t="str">
         <f t="shared" si="0"/>
@@ -7933,13 +7984,13 @@
     </row>
     <row r="6" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="67" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C6" s="68" t="s">
         <v>1215</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>1217</v>
       </c>
       <c r="D6" s="68" t="str">
         <f t="shared" si="0"/>
@@ -7949,13 +8000,13 @@
     </row>
     <row r="7" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="67" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C7" s="68" t="s">
         <v>1218</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>1220</v>
       </c>
       <c r="D7" s="68" t="str">
         <f t="shared" si="0"/>
@@ -7965,7 +8016,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B8" s="68" t="s">
         <v>373</v>
@@ -7979,13 +8030,13 @@
     </row>
     <row r="9" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="67" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C9" s="68" t="s">
         <v>1222</v>
-      </c>
-      <c r="B9" s="68" t="s">
-        <v>1223</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>1224</v>
       </c>
       <c r="D9" s="68" t="str">
         <f t="shared" si="0"/>
@@ -7995,13 +8046,13 @@
     </row>
     <row r="10" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="67" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C10" s="68" t="s">
         <v>1225</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>1227</v>
       </c>
       <c r="D10" s="68" t="str">
         <f t="shared" si="0"/>
@@ -8011,13 +8062,13 @@
     </row>
     <row r="11" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="67" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C11" s="68" t="s">
         <v>1228</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>1229</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>1230</v>
       </c>
       <c r="D11" s="68" t="str">
         <f t="shared" si="0"/>
@@ -8027,13 +8078,13 @@
     </row>
     <row r="12" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="67" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C12" s="68" t="s">
         <v>1231</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>1232</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>1233</v>
       </c>
       <c r="D12" s="68" t="str">
         <f t="shared" si="0"/>
@@ -8043,13 +8094,13 @@
     </row>
     <row r="13" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C13" s="68" t="s">
         <v>1234</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>1236</v>
       </c>
       <c r="D13" s="68" t="str">
         <f t="shared" si="0"/>
@@ -8059,13 +8110,13 @@
     </row>
     <row r="14" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B14" s="68" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C14" s="68" t="s">
         <v>1237</v>
-      </c>
-      <c r="B14" s="68" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>1239</v>
       </c>
       <c r="D14" s="68" t="str">
         <f t="shared" si="0"/>
@@ -8075,13 +8126,13 @@
     </row>
     <row r="15" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C15" s="68" t="s">
         <v>1240</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>1242</v>
       </c>
       <c r="D15" s="68" t="str">
         <f t="shared" si="0"/>
@@ -8106,7 +8157,7 @@
   <dimension ref="A1:AMJ34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8114,14 +8165,15 @@
     <col min="1" max="1" width="8" style="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.83203125" style="1" customWidth="1"/>
     <col min="7" max="1024" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>57</v>
@@ -8130,663 +8182,666 @@
         <v>59</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>1243</v>
+        <v>1616</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>1244</v>
+        <v>1617</v>
       </c>
       <c r="F1" s="64" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F2" s="24" t="str">
+        <f>A2&amp;" - "&amp;B2</f>
+        <v xml:space="preserve">A001 - data scientist </v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="133" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="24" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>1245</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>1246</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D3" s="91" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F3" s="24" t="str">
+        <f>A3&amp;" - "&amp;B3</f>
+        <v>A002 - target</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="137" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
         <v>1247</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="E2" s="24" t="s">
+      <c r="B4" s="24" t="s">
         <v>1248</v>
       </c>
-      <c r="F2" s="24" t="str">
-        <f t="shared" ref="F2:F34" si="0">A2&amp;" - "&amp;B2</f>
-        <v xml:space="preserve">A001 - data scientist </v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
+      <c r="C4" s="24" t="s">
         <v>1249</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F3" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>A002 - target</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="24" t="s">
-        <v>1253</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>1248</v>
+      <c r="D4" s="91" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>1614</v>
       </c>
       <c r="F4" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A4&amp;" - "&amp;B4</f>
         <v xml:space="preserve">A003 - trusted authority </v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="C5" s="20"/>
-      <c r="D5" s="24" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>1252</v>
+      <c r="D5" s="91" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F5" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A5&amp;" - "&amp;B5</f>
         <v>A004 - activist</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="C6" s="20"/>
-      <c r="D6" s="24" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>1252</v>
+      <c r="D6" s="91" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F6" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A6&amp;" - "&amp;B6</f>
         <v>A005 - community group</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="C7" s="20"/>
-      <c r="D7" s="24" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>1252</v>
+      <c r="D7" s="91" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F7" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A7&amp;" - "&amp;B7</f>
         <v>A006 - educator</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>1252</v>
+        <v>1259</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F8" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A8&amp;" - "&amp;B8</f>
         <v>A007 - factchecker</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="C9" s="20"/>
-      <c r="D9" s="24" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>1252</v>
+      <c r="D9" s="91" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F9" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A9&amp;" - "&amp;B9</f>
         <v>A008 - library</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="24" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>1252</v>
+      <c r="D10" s="91" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F10" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A10&amp;" - "&amp;B10</f>
         <v>A009 - NGO</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
       <c r="C11" s="20"/>
-      <c r="D11" s="24" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>1252</v>
+      <c r="D11" s="91" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F11" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A11&amp;" - "&amp;B11</f>
         <v xml:space="preserve">A010 - religious organisation </v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="24" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="24" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>1252</v>
+      <c r="D12" s="91" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F12" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A12&amp;" - "&amp;B12</f>
         <v xml:space="preserve">A011 - school </v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="24" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>1276</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>1248</v>
+        <v>1270</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>1614</v>
       </c>
       <c r="F13" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A13&amp;" - "&amp;B13</f>
         <v>A012 - account owner</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="24" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="24" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>1248</v>
+      <c r="D14" s="91" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>1614</v>
       </c>
       <c r="F14" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A14&amp;" - "&amp;B14</f>
         <v xml:space="preserve">A013 - content creator </v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="24" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
       <c r="C15" s="20"/>
-      <c r="D15" s="24" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>1252</v>
+      <c r="D15" s="91" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E15" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F15" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A15&amp;" - "&amp;B15</f>
         <v>A014 - elves</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="C16" s="20"/>
-      <c r="D16" s="24" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>1252</v>
+      <c r="D16" s="91" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F16" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A16&amp;" - "&amp;B16</f>
         <v>A015 - general public</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="24" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="C17" s="20"/>
-      <c r="D17" s="24" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>1248</v>
+      <c r="D17" s="91" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>1614</v>
       </c>
       <c r="F17" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A17&amp;" - "&amp;B17</f>
         <v>A016 - influencer</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>1252</v>
+        <v>1282</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E18" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F18" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A18&amp;" - "&amp;B18</f>
         <v>A017 - coordinating body</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>1248</v>
+        <v>1286</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E19" s="91" t="s">
+        <v>1614</v>
       </c>
       <c r="F19" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A19&amp;" - "&amp;B19</f>
         <v xml:space="preserve">A018 - government </v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="24" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="C20" s="20"/>
-      <c r="D20" s="24" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>1252</v>
+      <c r="D20" s="91" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F20" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A20&amp;" - "&amp;B20</f>
         <v xml:space="preserve">A019 - military </v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="C21" s="20"/>
-      <c r="D21" s="24" t="s">
-        <v>1289</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>1252</v>
+      <c r="D21" s="91" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E21" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F21" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A21&amp;" - "&amp;B21</f>
         <v>A020 - policy maker</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="C22" s="20"/>
-      <c r="D22" s="24" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>1248</v>
+      <c r="D22" s="91" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>1614</v>
       </c>
       <c r="F22" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A22&amp;" - "&amp;B22</f>
         <v>A021 - media organisation</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="C23" s="20"/>
-      <c r="D23" s="24" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>1252</v>
+      <c r="D23" s="91" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F23" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A23&amp;" - "&amp;B23</f>
         <v>A022 - company</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="C24" s="20"/>
-      <c r="D24" s="24" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>1252</v>
+      <c r="D24" s="91" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E24" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F24" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A24&amp;" - "&amp;B24</f>
         <v>A023 - adtech provider</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C25" s="20"/>
-      <c r="D25" s="24" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>1252</v>
+      <c r="D25" s="91" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E25" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F25" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A25&amp;" - "&amp;B25</f>
         <v>A024 - developer</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E26" s="91" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F26" s="24" t="str">
+        <f>A26&amp;" - "&amp;B26</f>
+        <v>A025 - funding_site_admin</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="24" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="91" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>1614</v>
+      </c>
+      <c r="F27" s="24" t="str">
+        <f>A27&amp;" - "&amp;B27</f>
+        <v>A026 - games designer</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="24" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>1308</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="91" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E28" s="91" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F28" s="24" t="str">
+        <f>A28&amp;" - "&amp;B28</f>
+        <v>A027 - information security</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="24" t="s">
         <v>1309</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="B29" s="24" t="s">
         <v>1310</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F26" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>A025 - funding_site_admin</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="24" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="91" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E29" s="91" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F29" s="24" t="str">
+        <f>A29&amp;" - "&amp;B29</f>
+        <v>A028 - platform administrator</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="24" t="s">
         <v>1311</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B30" s="24" t="s">
         <v>1312</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="24" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>1248</v>
-      </c>
-      <c r="F27" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>A026 - games designer</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="24" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="91" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E30" s="91" t="s">
+        <v>1615</v>
+      </c>
+      <c r="F30" s="24" t="str">
+        <f>A30&amp;" - "&amp;B30</f>
+        <v xml:space="preserve">A029 - server admininistrator </v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="24" t="s">
         <v>1313</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B31" s="24" t="s">
         <v>1314</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="24" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F28" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>A027 - information security</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="24" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>1316</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="24" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F29" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v>A028 - platform administrator</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="24" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="24" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F30" s="24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">A029 - server admininistrator </v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="24" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>1320</v>
-      </c>
       <c r="C31" s="20"/>
-      <c r="D31" s="24" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>1252</v>
+      <c r="D31" s="92" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E31" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F31" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A31&amp;" - "&amp;B31</f>
         <v xml:space="preserve">A030 - platforms </v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="24" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>1252</v>
+        <v>1318</v>
+      </c>
+      <c r="D32" s="92" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E32" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F32" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A32&amp;" - "&amp;B32</f>
         <v>A031 - social media platform adminstrator</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="C33" s="20"/>
-      <c r="D33" s="24" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>1252</v>
+      <c r="D33" s="92" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E33" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F33" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A33&amp;" - "&amp;B33</f>
         <v xml:space="preserve">A032 - social media platform outreach </v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="24" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>1321</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>1252</v>
+        <v>1323</v>
+      </c>
+      <c r="D34" s="92" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E34" s="91" t="s">
+        <v>1615</v>
       </c>
       <c r="F34" s="24" t="str">
-        <f t="shared" si="0"/>
+        <f>A34&amp;" - "&amp;B34</f>
         <v>A033 - social media platform owner</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AMJ35">
+    <sortCondition ref="A2:A35"/>
+  </sortState>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -8803,7 +8858,7 @@
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8817,7 +8872,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>57</v>
@@ -8832,10 +8887,10 @@
     </row>
     <row r="2" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="24" t="str">
@@ -8846,10 +8901,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="24" t="str">
@@ -8860,10 +8915,10 @@
     </row>
     <row r="4" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="24" t="str">
@@ -8874,10 +8929,10 @@
     </row>
     <row r="5" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="24" t="str">
@@ -8888,10 +8943,10 @@
     </row>
     <row r="6" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="24" t="str">
@@ -8902,10 +8957,10 @@
     </row>
     <row r="7" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="str">
@@ -8916,10 +8971,10 @@
     </row>
     <row r="8" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="24" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="24" t="str">
@@ -8930,10 +8985,10 @@
     </row>
     <row r="9" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="24" t="s">
-        <v>1266</v>
+        <v>1260</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="24" t="str">
@@ -8944,10 +8999,10 @@
     </row>
     <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="24" t="str">
@@ -8958,10 +9013,10 @@
     </row>
     <row r="11" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="24" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="24" t="str">
@@ -8987,7 +9042,7 @@
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9002,7 +9057,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="64" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>57</v>
@@ -9011,7 +9066,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>60</v>
@@ -9019,16 +9074,16 @@
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="E2" s="24" t="str">
         <f t="shared" ref="E2:E7" si="0">A2&amp;" - "&amp;B2</f>
@@ -9037,16 +9092,16 @@
     </row>
     <row r="3" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="E3" s="24" t="str">
         <f t="shared" si="0"/>
@@ -9055,16 +9110,16 @@
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="E4" s="24" t="str">
         <f t="shared" si="0"/>
@@ -9073,16 +9128,16 @@
     </row>
     <row r="5" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="24" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="E5" s="24" t="str">
         <f t="shared" si="0"/>
@@ -9091,16 +9146,16 @@
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="24" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="E6" s="24" t="str">
         <f t="shared" si="0"/>
@@ -9109,16 +9164,16 @@
     </row>
     <row r="7" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="24" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="E7" s="24" t="str">
         <f t="shared" si="0"/>
@@ -9173,31 +9228,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="65" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="E1" s="65" t="s">
         <v>57</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>379</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>59</v>
@@ -9208,7 +9263,7 @@
     </row>
     <row r="2" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="67" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -9216,13 +9271,13 @@
       <c r="E2" s="70"/>
       <c r="F2" s="69"/>
       <c r="G2" s="67" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="H2" s="67" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="I2" s="72" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="J2" s="70"/>
       <c r="K2" s="67" t="str">
@@ -9232,7 +9287,7 @@
     </row>
     <row r="3" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="67" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
@@ -9240,13 +9295,13 @@
       <c r="E3" s="70"/>
       <c r="F3" s="69"/>
       <c r="G3" s="67" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I3" s="72" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
       <c r="J3" s="70"/>
       <c r="K3" s="67" t="str">
@@ -9256,23 +9311,23 @@
     </row>
     <row r="4" spans="1:11" ht="200.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
       <c r="D4" s="71"/>
       <c r="E4" s="70"/>
       <c r="F4" s="68" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="G4" s="67" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
       <c r="H4" s="67" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I4" s="72" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="J4" s="70"/>
       <c r="K4" s="67" t="str">
@@ -9282,17 +9337,17 @@
     </row>
     <row r="5" spans="1:11" ht="68.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="67" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
       <c r="D5" s="71"/>
       <c r="E5" s="70"/>
       <c r="F5" s="68" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="G5" s="67" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="H5" s="67" t="s">
         <v>633</v>
@@ -9409,13 +9464,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="73" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="D1" s="74"/>
       <c r="E1" s="73" t="s">
@@ -9432,15 +9487,15 @@
     </row>
     <row r="2" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="76" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
       <c r="D2" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="F2" s="71"/>
       <c r="G2" s="71"/>
@@ -9452,15 +9507,15 @@
     </row>
     <row r="3" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="76" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E3" s="72" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
@@ -9472,12 +9527,12 @@
     </row>
     <row r="4" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="76" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
       <c r="D4" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E4" s="72" t="s">
         <v>5</v>
@@ -9492,15 +9547,15 @@
     </row>
     <row r="5" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="76" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
       <c r="D5" s="67" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E5" s="72" t="s">
         <v>1377</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>1383</v>
       </c>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
@@ -9512,15 +9567,15 @@
     </row>
     <row r="6" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="76" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
       <c r="D6" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="F6" s="71"/>
       <c r="G6" s="71"/>
@@ -9532,15 +9587,15 @@
     </row>
     <row r="7" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="76" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
       <c r="D7" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E7" s="72" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="71"/>
@@ -9552,15 +9607,15 @@
     </row>
     <row r="8" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="76" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
       <c r="D8" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E8" s="72" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="F8" s="71"/>
       <c r="G8" s="71"/>
@@ -9572,20 +9627,20 @@
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="76" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
       <c r="D9" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E9" s="72" t="s">
-        <v>1391</v>
+        <v>1385</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="71"/>
       <c r="H9" s="68" t="s">
-        <v>1392</v>
+        <v>1386</v>
       </c>
       <c r="I9" s="76" t="str">
         <f t="shared" si="0"/>
@@ -9594,15 +9649,15 @@
     </row>
     <row r="10" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="76" t="s">
-        <v>1393</v>
+        <v>1387</v>
       </c>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
       <c r="D10" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E10" s="72" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -9614,20 +9669,20 @@
     </row>
     <row r="11" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="76" t="s">
-        <v>1395</v>
+        <v>1389</v>
       </c>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
       <c r="D11" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E11" s="72" t="s">
-        <v>1396</v>
+        <v>1390</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
       <c r="H11" s="68" t="s">
-        <v>1397</v>
+        <v>1391</v>
       </c>
       <c r="I11" s="76" t="str">
         <f t="shared" si="0"/>
@@ -9636,20 +9691,20 @@
     </row>
     <row r="12" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="76" t="s">
-        <v>1398</v>
+        <v>1392</v>
       </c>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
       <c r="D12" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E12" s="72" t="s">
-        <v>1399</v>
+        <v>1393</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="71"/>
       <c r="H12" s="68" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="I12" s="76" t="str">
         <f t="shared" si="0"/>
@@ -9658,15 +9713,15 @@
     </row>
     <row r="13" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="76" t="s">
-        <v>1401</v>
+        <v>1395</v>
       </c>
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
       <c r="D13" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E13" s="72" t="s">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="71"/>
@@ -9678,15 +9733,15 @@
     </row>
     <row r="14" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="76" t="s">
-        <v>1403</v>
+        <v>1397</v>
       </c>
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
       <c r="D14" s="67" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="E14" s="72" t="s">
-        <v>1404</v>
+        <v>1398</v>
       </c>
       <c r="F14" s="71"/>
       <c r="G14" s="71"/>
@@ -9698,7 +9753,7 @@
     </row>
     <row r="15" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="76" t="s">
-        <v>1405</v>
+        <v>1399</v>
       </c>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
@@ -9714,13 +9769,13 @@
     </row>
     <row r="16" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="76" t="s">
-        <v>1406</v>
+        <v>1400</v>
       </c>
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
       <c r="D16" s="71"/>
       <c r="E16" s="55" t="s">
-        <v>1407</v>
+        <v>1401</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="71"/>
@@ -9732,13 +9787,13 @@
     </row>
     <row r="17" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="76" t="s">
-        <v>1408</v>
+        <v>1402</v>
       </c>
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
       <c r="D17" s="71"/>
       <c r="E17" s="72" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="F17" s="71"/>
       <c r="G17" s="71"/>
@@ -9750,15 +9805,15 @@
     </row>
     <row r="18" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="76" t="s">
-        <v>1410</v>
+        <v>1404</v>
       </c>
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
       <c r="D18" s="67" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="E18" s="72" t="s">
-        <v>1412</v>
+        <v>1406</v>
       </c>
       <c r="F18" s="71"/>
       <c r="G18" s="71"/>
@@ -9770,15 +9825,15 @@
     </row>
     <row r="19" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="76" t="s">
-        <v>1413</v>
+        <v>1407</v>
       </c>
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
       <c r="D19" s="67" t="s">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="E19" s="55" t="s">
-        <v>1414</v>
+        <v>1408</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="71"/>
@@ -9790,7 +9845,7 @@
     </row>
     <row r="20" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="76" t="s">
-        <v>1415</v>
+        <v>1409</v>
       </c>
       <c r="B20" s="70"/>
       <c r="C20" s="70"/>
@@ -9806,15 +9861,15 @@
     </row>
     <row r="21" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="76" t="s">
-        <v>1416</v>
+        <v>1410</v>
       </c>
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
       <c r="D21" s="67" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="E21" s="72" t="s">
-        <v>1418</v>
+        <v>1412</v>
       </c>
       <c r="F21" s="71"/>
       <c r="G21" s="71"/>
@@ -9826,15 +9881,15 @@
     </row>
     <row r="22" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="76" t="s">
-        <v>1419</v>
+        <v>1413</v>
       </c>
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
       <c r="D22" s="67" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="E22" s="72" t="s">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="F22" s="71"/>
       <c r="G22" s="71"/>
@@ -9846,7 +9901,7 @@
     </row>
     <row r="23" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="76" t="s">
-        <v>1421</v>
+        <v>1415</v>
       </c>
       <c r="B23" s="70"/>
       <c r="C23" s="70"/>
@@ -9862,7 +9917,7 @@
     </row>
     <row r="24" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="76" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="B24" s="70"/>
       <c r="C24" s="70"/>
@@ -9878,7 +9933,7 @@
     </row>
     <row r="25" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="76" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="B25" s="70"/>
       <c r="C25" s="70"/>
@@ -9894,15 +9949,15 @@
     </row>
     <row r="26" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="76" t="s">
-        <v>1424</v>
+        <v>1418</v>
       </c>
       <c r="B26" s="70"/>
       <c r="C26" s="70"/>
       <c r="D26" s="67" t="s">
-        <v>1425</v>
+        <v>1419</v>
       </c>
       <c r="E26" s="72" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="F26" s="71"/>
       <c r="G26" s="71"/>
@@ -9914,7 +9969,7 @@
     </row>
     <row r="27" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="76" t="s">
-        <v>1427</v>
+        <v>1421</v>
       </c>
       <c r="B27" s="70"/>
       <c r="C27" s="70"/>
@@ -9930,7 +9985,7 @@
     </row>
     <row r="28" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="76" t="s">
-        <v>1428</v>
+        <v>1422</v>
       </c>
       <c r="B28" s="70"/>
       <c r="C28" s="70"/>
@@ -9946,7 +10001,7 @@
     </row>
     <row r="29" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="76" t="s">
-        <v>1429</v>
+        <v>1423</v>
       </c>
       <c r="B29" s="70"/>
       <c r="C29" s="70"/>
@@ -9962,7 +10017,7 @@
     </row>
     <row r="30" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="76" t="s">
-        <v>1430</v>
+        <v>1424</v>
       </c>
       <c r="B30" s="70"/>
       <c r="C30" s="70"/>
@@ -9978,13 +10033,13 @@
     </row>
     <row r="31" spans="1:9" ht="35.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="76" t="s">
-        <v>1431</v>
+        <v>1425</v>
       </c>
       <c r="B31" s="70"/>
       <c r="C31" s="70"/>
       <c r="D31" s="71"/>
       <c r="E31" s="55" t="s">
-        <v>1432</v>
+        <v>1426</v>
       </c>
       <c r="F31" s="71"/>
       <c r="G31" s="71"/>
@@ -9996,7 +10051,7 @@
     </row>
     <row r="32" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="76" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="B32" s="70"/>
       <c r="C32" s="70"/>
@@ -10012,15 +10067,15 @@
     </row>
     <row r="33" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="76" t="s">
-        <v>1434</v>
+        <v>1428</v>
       </c>
       <c r="B33" s="70"/>
       <c r="C33" s="70"/>
       <c r="D33" s="67" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="E33" s="72" t="s">
-        <v>1436</v>
+        <v>1430</v>
       </c>
       <c r="F33" s="71"/>
       <c r="G33" s="71"/>
@@ -10032,15 +10087,15 @@
     </row>
     <row r="34" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="76" t="s">
-        <v>1437</v>
+        <v>1431</v>
       </c>
       <c r="B34" s="70"/>
       <c r="C34" s="70"/>
       <c r="D34" s="67" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="E34" s="72" t="s">
-        <v>1438</v>
+        <v>1432</v>
       </c>
       <c r="F34" s="71"/>
       <c r="G34" s="71"/>
@@ -10052,15 +10107,15 @@
     </row>
     <row r="35" spans="1:9" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="76" t="s">
-        <v>1439</v>
+        <v>1433</v>
       </c>
       <c r="B35" s="70"/>
       <c r="C35" s="70"/>
       <c r="D35" s="67" t="s">
-        <v>1435</v>
+        <v>1429</v>
       </c>
       <c r="E35" s="72" t="s">
-        <v>1440</v>
+        <v>1434</v>
       </c>
       <c r="F35" s="71"/>
       <c r="G35" s="71"/>
@@ -10112,7 +10167,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>57</v>
@@ -10267,7 +10322,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>57</v>
@@ -10569,7 +10624,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>57</v>
@@ -11693,7 +11748,7 @@
         <v>107</v>
       </c>
       <c r="D63" s="30" t="s">
-        <v>1559</v>
+        <v>1553</v>
       </c>
       <c r="E63" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11711,7 +11766,7 @@
         <v>107</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>1560</v>
+        <v>1554</v>
       </c>
       <c r="E64" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11729,7 +11784,7 @@
         <v>107</v>
       </c>
       <c r="D65" s="30" t="s">
-        <v>1561</v>
+        <v>1555</v>
       </c>
       <c r="E65" s="24" t="str">
         <f t="shared" si="1"/>
@@ -11753,7 +11808,7 @@
   <dimension ref="A1:AMI4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11766,7 +11821,7 @@
   <sheetData>
     <row r="1" spans="1:1023" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>57</v>
@@ -12799,13 +12854,13 @@
     </row>
     <row r="2" spans="1:1023" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C2" t="s">
         <v>1474</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1480</v>
       </c>
       <c r="D2" t="str">
         <f>A2&amp;" - "&amp;B2</f>
@@ -12814,13 +12869,13 @@
     </row>
     <row r="3" spans="1:1023" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C3" t="s">
         <v>1475</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1481</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D4" si="0">A3&amp;" - "&amp;B3</f>
@@ -12829,13 +12884,13 @@
     </row>
     <row r="4" spans="1:1023" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C4" t="s">
         <v>1476</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1479</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1482</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -12871,7 +12926,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>57</v>
@@ -12883,7 +12938,7 @@
         <v>59</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>60</v>
@@ -12903,7 +12958,7 @@
         <v>302</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F2" s="24" t="str">
         <f t="shared" ref="F2:F43" si="0">A2&amp;" - "&amp;B2</f>
@@ -12922,7 +12977,7 @@
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F3" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12941,7 +12996,7 @@
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F4" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12960,7 +13015,7 @@
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F5" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12979,7 +13034,7 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F6" s="24" t="str">
         <f t="shared" si="0"/>
@@ -12998,7 +13053,7 @@
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F7" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13017,7 +13072,7 @@
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F8" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13036,7 +13091,7 @@
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13055,7 +13110,7 @@
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F10" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13074,7 +13129,7 @@
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F11" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13093,7 +13148,7 @@
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F12" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13112,7 +13167,7 @@
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F13" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13131,7 +13186,7 @@
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F14" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13150,7 +13205,7 @@
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F15" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13169,7 +13224,7 @@
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F16" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13188,7 +13243,7 @@
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F17" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13207,7 +13262,7 @@
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F18" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13226,7 +13281,7 @@
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F19" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13245,7 +13300,7 @@
       </c>
       <c r="D20" s="20"/>
       <c r="E20" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F20" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13264,7 +13319,7 @@
       </c>
       <c r="D21" s="20"/>
       <c r="E21" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F21" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13283,7 +13338,7 @@
       </c>
       <c r="D22" s="20"/>
       <c r="E22" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F22" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13302,7 +13357,7 @@
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F23" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13321,7 +13376,7 @@
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F24" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13340,7 +13395,7 @@
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F25" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13359,7 +13414,7 @@
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F26" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13378,7 +13433,7 @@
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F27" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13397,7 +13452,7 @@
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F28" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13416,7 +13471,7 @@
       </c>
       <c r="D29" s="20"/>
       <c r="E29" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F29" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13435,7 +13490,7 @@
       </c>
       <c r="D30" s="20"/>
       <c r="E30" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F30" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13454,7 +13509,7 @@
       </c>
       <c r="D31" s="20"/>
       <c r="E31" s="77" t="s">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="F31" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13463,7 +13518,7 @@
     </row>
     <row r="32" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29" t="s">
-        <v>1483</v>
+        <v>1477</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>361</v>
@@ -13473,7 +13528,7 @@
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F32" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13482,7 +13537,7 @@
     </row>
     <row r="33" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="29" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>362</v>
@@ -13492,7 +13547,7 @@
       </c>
       <c r="D33" s="20"/>
       <c r="E33" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F33" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13501,7 +13556,7 @@
     </row>
     <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="29" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>363</v>
@@ -13511,7 +13566,7 @@
       </c>
       <c r="D34" s="20"/>
       <c r="E34" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F34" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13520,7 +13575,7 @@
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="29" t="s">
-        <v>1486</v>
+        <v>1480</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>364</v>
@@ -13530,7 +13585,7 @@
       </c>
       <c r="D35" s="20"/>
       <c r="E35" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F35" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13539,7 +13594,7 @@
     </row>
     <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="s">
-        <v>1487</v>
+        <v>1481</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>365</v>
@@ -13549,7 +13604,7 @@
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F36" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13558,7 +13613,7 @@
     </row>
     <row r="37" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="29" t="s">
-        <v>1488</v>
+        <v>1482</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>366</v>
@@ -13568,7 +13623,7 @@
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F37" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13577,7 +13632,7 @@
     </row>
     <row r="38" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="29" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>367</v>
@@ -13587,7 +13642,7 @@
       </c>
       <c r="D38" s="20"/>
       <c r="E38" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F38" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13596,7 +13651,7 @@
     </row>
     <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="29" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>368</v>
@@ -13606,7 +13661,7 @@
       </c>
       <c r="D39" s="20"/>
       <c r="E39" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F39" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13615,7 +13670,7 @@
     </row>
     <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="29" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>369</v>
@@ -13625,7 +13680,7 @@
       </c>
       <c r="D40" s="20"/>
       <c r="E40" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F40" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13634,7 +13689,7 @@
     </row>
     <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
-        <v>1492</v>
+        <v>1486</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>370</v>
@@ -13644,7 +13699,7 @@
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F41" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13653,7 +13708,7 @@
     </row>
     <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>371</v>
@@ -13663,7 +13718,7 @@
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F42" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13672,7 +13727,7 @@
     </row>
     <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="29" t="s">
-        <v>1494</v>
+        <v>1488</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>372</v>
@@ -13682,7 +13737,7 @@
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="1" t="s">
-        <v>1475</v>
+        <v>1469</v>
       </c>
       <c r="F43" s="24" t="str">
         <f t="shared" si="0"/>
@@ -13706,8 +13761,8 @@
   </sheetPr>
   <dimension ref="A1:AMI95"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" topLeftCell="A87" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -13722,7 +13777,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="47" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="47" t="s">
         <v>57</v>
@@ -13734,7 +13789,7 @@
         <v>59</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>375</v>
@@ -13773,7 +13828,7 @@
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -13806,7 +13861,7 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12" t="s">
-        <v>1611</v>
+        <v>1605</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -13901,7 +13956,7 @@
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12" t="s">
-        <v>1610</v>
+        <v>1604</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -16697,10 +16752,10 @@
     </row>
     <row r="95" spans="1:14" ht="58.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="24" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="B95" s="55" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C95" s="24" t="s">
         <v>726</v>
@@ -16723,7 +16778,7 @@
       </c>
       <c r="L95" s="20"/>
       <c r="M95" s="56" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="N95" s="24" t="str">
         <f>A95&amp;" - "&amp;B95</f>
@@ -16748,8 +16803,8 @@
   </sheetPr>
   <dimension ref="A1:AMI142"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N132" sqref="N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16769,7 +16824,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>57</v>
@@ -16781,7 +16836,7 @@
         <v>59</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>375</v>
@@ -16841,7 +16896,7 @@
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="79" t="s">
-        <v>1569</v>
+        <v>1563</v>
       </c>
       <c r="N2" s="24" t="str">
         <f t="shared" ref="N2:N33" si="0">A2&amp;" - "&amp;B2</f>
@@ -16859,7 +16914,7 @@
         <v>688</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>689</v>
@@ -16880,7 +16935,7 @@
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="80" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="N3" s="24" t="str">
         <f t="shared" si="0"/>
@@ -16898,7 +16953,7 @@
         <v>695</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>696</v>
@@ -16917,7 +16972,7 @@
       </c>
       <c r="L4" s="20"/>
       <c r="M4" s="80" t="s">
-        <v>1571</v>
+        <v>1565</v>
       </c>
       <c r="N4" s="24" t="str">
         <f t="shared" si="0"/>
@@ -16935,7 +16990,7 @@
         <v>678</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>1500</v>
+        <v>1494</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>699</v>
@@ -16954,7 +17009,7 @@
       </c>
       <c r="L5" s="20"/>
       <c r="M5" s="80" t="s">
-        <v>1572</v>
+        <v>1566</v>
       </c>
       <c r="N5" s="24" t="str">
         <f t="shared" si="0"/>
@@ -16972,7 +17027,7 @@
         <v>695</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1501</v>
+        <v>1495</v>
       </c>
       <c r="E6" s="24" t="s">
         <v>703</v>
@@ -16991,7 +17046,7 @@
       </c>
       <c r="L6" s="20"/>
       <c r="M6" s="80" t="s">
-        <v>1573</v>
+        <v>1567</v>
       </c>
       <c r="N6" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17009,14 +17064,14 @@
         <v>706</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>1460</v>
+        <v>1454</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>708</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H7" s="60" t="s">
         <v>46</v>
@@ -17030,7 +17085,7 @@
       </c>
       <c r="L7" s="20"/>
       <c r="M7" s="80" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="N7" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17065,7 +17120,7 @@
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="79" t="s">
-        <v>1575</v>
+        <v>1569</v>
       </c>
       <c r="N8" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17083,7 +17138,7 @@
         <v>688</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>1502</v>
+        <v>1496</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>714</v>
@@ -17102,7 +17157,7 @@
       </c>
       <c r="L9" s="20"/>
       <c r="M9" s="79" t="s">
-        <v>1570</v>
+        <v>1564</v>
       </c>
       <c r="N9" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17111,7 +17166,7 @@
     </row>
     <row r="10" spans="1:14" ht="306.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="24" t="s">
-        <v>1562</v>
+        <v>1556</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>715</v>
@@ -17120,7 +17175,7 @@
         <v>716</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>1503</v>
+        <v>1497</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>717</v>
@@ -17141,7 +17196,7 @@
       </c>
       <c r="L10" s="20"/>
       <c r="M10" s="79" t="s">
-        <v>1576</v>
+        <v>1570</v>
       </c>
       <c r="N10" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17178,7 +17233,7 @@
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="79" t="s">
-        <v>1577</v>
+        <v>1571</v>
       </c>
       <c r="N11" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17213,7 +17268,7 @@
       </c>
       <c r="L12" s="20"/>
       <c r="M12" s="80" t="s">
-        <v>1578</v>
+        <v>1572</v>
       </c>
       <c r="N12" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17231,7 +17286,7 @@
         <v>695</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -17248,7 +17303,7 @@
       </c>
       <c r="L13" s="20"/>
       <c r="M13" s="80" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="N13" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17283,7 +17338,7 @@
       </c>
       <c r="L14" s="20"/>
       <c r="M14" s="80" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="N14" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17318,7 +17373,7 @@
       </c>
       <c r="L15" s="20"/>
       <c r="M15" s="80" t="s">
-        <v>1579</v>
+        <v>1573</v>
       </c>
       <c r="N15" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17336,12 +17391,12 @@
         <v>721</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>1462</v>
+        <v>1456</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H16" s="60" t="s">
         <v>46</v>
@@ -17355,7 +17410,7 @@
       </c>
       <c r="L16" s="20"/>
       <c r="M16" s="80" t="s">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="N16" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17386,11 +17441,11 @@
         <v>386</v>
       </c>
       <c r="K17" s="52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17" s="80" t="s">
-        <v>1581</v>
+        <v>1575</v>
       </c>
       <c r="N17" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17399,16 +17454,16 @@
     </row>
     <row r="18" spans="1:14" ht="74.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>744</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="C18" s="24" t="s">
         <v>745</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="24" t="s">
         <v>746</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>747</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
@@ -17425,7 +17480,7 @@
       </c>
       <c r="L18" s="20"/>
       <c r="M18" s="80" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N18" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17434,16 +17489,16 @@
     </row>
     <row r="19" spans="1:14" ht="98.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24" t="s">
+        <v>748</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>749</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="C19" s="24" t="s">
         <v>750</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>751</v>
-      </c>
       <c r="D19" s="20" t="s">
-        <v>1506</v>
+        <v>1500</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -17460,7 +17515,7 @@
       </c>
       <c r="L19" s="20"/>
       <c r="M19" s="79" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="N19" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17469,16 +17524,16 @@
     </row>
     <row r="20" spans="1:14" ht="50.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="24" t="s">
+        <v>752</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>753</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>754</v>
-      </c>
       <c r="C20" s="24" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>1441</v>
+        <v>1435</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -17495,7 +17550,7 @@
       </c>
       <c r="L20" s="20"/>
       <c r="M20" s="79" t="s">
-        <v>1582</v>
+        <v>1576</v>
       </c>
       <c r="N20" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17504,16 +17559,16 @@
     </row>
     <row r="21" spans="1:14" ht="158.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="24" t="s">
+        <v>754</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>755</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="C21" s="24" t="s">
         <v>756</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>757</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>758</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -17529,10 +17584,10 @@
         <v>640</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M21" s="80" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="N21" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17541,16 +17596,16 @@
     </row>
     <row r="22" spans="1:14" ht="50.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>760</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>761</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>762</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>763</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -17567,7 +17622,7 @@
       </c>
       <c r="L22" s="20"/>
       <c r="M22" s="81" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="N22" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17576,16 +17631,16 @@
     </row>
     <row r="23" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="24" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -17602,7 +17657,7 @@
       </c>
       <c r="L23" s="20"/>
       <c r="M23" s="79" t="s">
-        <v>1584</v>
+        <v>1578</v>
       </c>
       <c r="N23" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17611,16 +17666,16 @@
     </row>
     <row r="24" spans="1:14" ht="152.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="24" t="s">
+        <v>766</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>767</v>
+      </c>
+      <c r="C24" s="24" t="s">
         <v>768</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="D24" s="24" t="s">
         <v>769</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>771</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -17637,7 +17692,7 @@
       </c>
       <c r="L24" s="20"/>
       <c r="M24" s="80" t="s">
-        <v>1585</v>
+        <v>1579</v>
       </c>
       <c r="N24" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17646,16 +17701,16 @@
     </row>
     <row r="25" spans="1:14" ht="50.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="24" t="s">
+        <v>771</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="D25" s="24" t="s">
         <v>773</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>774</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>746</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>775</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
@@ -17672,7 +17727,7 @@
       </c>
       <c r="L25" s="20"/>
       <c r="M25" s="80" t="s">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="N25" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17681,16 +17736,16 @@
     </row>
     <row r="26" spans="1:14" ht="182.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="24" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>1507</v>
+        <v>1501</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
@@ -17707,7 +17762,7 @@
       </c>
       <c r="L26" s="20"/>
       <c r="M26" s="80" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="N26" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17716,16 +17771,16 @@
     </row>
     <row r="27" spans="1:14" ht="52.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="24" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>717</v>
@@ -17746,7 +17801,7 @@
       </c>
       <c r="L27" s="20"/>
       <c r="M27" s="80" t="s">
-        <v>1587</v>
+        <v>1581</v>
       </c>
       <c r="N27" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17755,16 +17810,16 @@
     </row>
     <row r="28" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="24" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -17781,7 +17836,7 @@
       </c>
       <c r="L28" s="20"/>
       <c r="M28" s="79" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="N28" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17790,16 +17845,16 @@
     </row>
     <row r="29" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="24" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1564</v>
+        <v>1558</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>1509</v>
+        <v>1503</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -17816,7 +17871,7 @@
       </c>
       <c r="L29" s="20"/>
       <c r="M29" s="79" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="N29" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17825,35 +17880,35 @@
     </row>
     <row r="30" spans="1:14" ht="352.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="24" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>726</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H30" s="57" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="52" t="s">
         <v>413</v>
       </c>
       <c r="K30" s="52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L30" s="20"/>
       <c r="M30" s="80" t="s">
-        <v>1590</v>
+        <v>1584</v>
       </c>
       <c r="N30" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17862,19 +17917,19 @@
     </row>
     <row r="31" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="24" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24" t="s">
@@ -17890,7 +17945,7 @@
       </c>
       <c r="L31" s="20"/>
       <c r="M31" s="80" t="s">
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="N31" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17899,19 +17954,19 @@
     </row>
     <row r="32" spans="1:14" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>797</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="D32" s="24" t="s">
         <v>798</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="E32" s="24" t="s">
         <v>799</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>800</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>801</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24" t="s">
@@ -17927,7 +17982,7 @@
       </c>
       <c r="L32" s="20"/>
       <c r="M32" s="80" t="s">
-        <v>1592</v>
+        <v>1586</v>
       </c>
       <c r="N32" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17936,27 +17991,27 @@
     </row>
     <row r="33" spans="1:14" ht="134.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
+        <v>800</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="C33" s="24" t="s">
         <v>802</v>
       </c>
-      <c r="B33" s="24" t="s">
-        <v>803</v>
-      </c>
-      <c r="C33" s="24" t="s">
+      <c r="D33" s="20" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E33" s="24" t="s">
         <v>804</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>1510</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>806</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="24" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="J33" s="52" t="s">
         <v>449</v>
@@ -17966,7 +18021,7 @@
       </c>
       <c r="L33" s="20"/>
       <c r="M33" s="80" t="s">
-        <v>1593</v>
+        <v>1587</v>
       </c>
       <c r="N33" s="24" t="str">
         <f t="shared" si="0"/>
@@ -17975,16 +18030,16 @@
     </row>
     <row r="34" spans="1:14" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="24" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B34" s="77" t="s">
-        <v>1565</v>
+        <v>1559</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -18008,16 +18063,16 @@
     </row>
     <row r="35" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D35" s="55" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -18034,7 +18089,7 @@
       </c>
       <c r="L35" s="20"/>
       <c r="M35" s="80" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="N35" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18043,16 +18098,16 @@
     </row>
     <row r="36" spans="1:14" ht="62.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="24" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B36" s="77" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -18069,7 +18124,7 @@
       </c>
       <c r="L36" s="20"/>
       <c r="M36" s="79" t="s">
-        <v>1594</v>
+        <v>1588</v>
       </c>
       <c r="N36" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18078,16 +18133,16 @@
     </row>
     <row r="37" spans="1:14" ht="74.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="24" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>1513</v>
+        <v>1507</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>699</v>
@@ -18106,7 +18161,7 @@
       </c>
       <c r="L37" s="20"/>
       <c r="M37" s="80" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="N37" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18115,16 +18170,16 @@
     </row>
     <row r="38" spans="1:14" ht="62.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="24" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C38" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D38" s="24" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
@@ -18141,7 +18196,7 @@
       </c>
       <c r="L38" s="20"/>
       <c r="M38" s="90" t="s">
-        <v>1609</v>
+        <v>1603</v>
       </c>
       <c r="N38" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18150,16 +18205,16 @@
     </row>
     <row r="39" spans="1:14" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="24" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C39" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>699</v>
@@ -18178,7 +18233,7 @@
       </c>
       <c r="L39" s="20"/>
       <c r="M39" s="82" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="N39" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18187,16 +18242,16 @@
     </row>
     <row r="40" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="24" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>1514</v>
+        <v>1508</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
@@ -18213,7 +18268,7 @@
       </c>
       <c r="L40" s="20"/>
       <c r="M40" s="80" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N40" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18222,16 +18277,16 @@
     </row>
     <row r="41" spans="1:14" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="24" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>1515</v>
+        <v>1509</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
@@ -18248,7 +18303,7 @@
       </c>
       <c r="L41" s="20"/>
       <c r="M41" s="80" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="N41" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18257,16 +18312,16 @@
     </row>
     <row r="42" spans="1:14" ht="202.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="24" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C42" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -18283,7 +18338,7 @@
       </c>
       <c r="L42" s="20"/>
       <c r="M42" s="80" t="s">
-        <v>1595</v>
+        <v>1589</v>
       </c>
       <c r="N42" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18292,16 +18347,16 @@
     </row>
     <row r="43" spans="1:14" ht="52.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="24" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D43" s="20" t="s">
-        <v>1516</v>
+        <v>1510</v>
       </c>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
@@ -18318,7 +18373,7 @@
       </c>
       <c r="L43" s="20"/>
       <c r="M43" s="80" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="N43" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18327,16 +18382,16 @@
     </row>
     <row r="44" spans="1:14" ht="143" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="24" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B44" s="77" t="s">
-        <v>1567</v>
+        <v>1561</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D44" s="20" t="s">
-        <v>1517</v>
+        <v>1511</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
@@ -18353,7 +18408,7 @@
       </c>
       <c r="L44" s="20"/>
       <c r="M44" s="80" t="s">
-        <v>1608</v>
+        <v>1602</v>
       </c>
       <c r="N44" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18362,23 +18417,23 @@
     </row>
     <row r="45" spans="1:14" ht="268.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="24" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C45" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="24" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="H45" s="60" t="s">
         <v>596</v>
@@ -18392,7 +18447,7 @@
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="80" t="s">
-        <v>1596</v>
+        <v>1590</v>
       </c>
       <c r="N45" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18401,19 +18456,19 @@
     </row>
     <row r="46" spans="1:14" ht="230.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="24" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B46" s="24" t="s">
+        <v>839</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E46" s="24" t="s">
         <v>841</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>804</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>1607</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>843</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="24" t="s">
@@ -18429,7 +18484,7 @@
       </c>
       <c r="L46" s="20"/>
       <c r="M46" s="80" t="s">
-        <v>1597</v>
+        <v>1591</v>
       </c>
       <c r="N46" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18438,16 +18493,16 @@
     </row>
     <row r="47" spans="1:14" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="24" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C47" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
@@ -18471,16 +18526,16 @@
     </row>
     <row r="48" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="24" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C48" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -18497,7 +18552,7 @@
       </c>
       <c r="L48" s="20"/>
       <c r="M48" s="80" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="N48" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18506,16 +18561,16 @@
     </row>
     <row r="49" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="24" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D49" s="20" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
@@ -18539,16 +18594,16 @@
     </row>
     <row r="50" spans="1:14" ht="110.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="24" t="s">
+        <v>849</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="D50" s="24" t="s">
         <v>851</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>852</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>853</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
@@ -18565,7 +18620,7 @@
       </c>
       <c r="L50" s="20"/>
       <c r="M50" s="80" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="N50" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18574,16 +18629,16 @@
     </row>
     <row r="51" spans="1:14" ht="188.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="24" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>1521</v>
+        <v>1515</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -18600,7 +18655,7 @@
       </c>
       <c r="L51" s="20"/>
       <c r="M51" s="80" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="N51" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18609,16 +18664,16 @@
     </row>
     <row r="52" spans="1:14" ht="122.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="24" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>726</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
@@ -18635,7 +18690,7 @@
       </c>
       <c r="L52" s="20"/>
       <c r="M52" s="79" t="s">
-        <v>1598</v>
+        <v>1592</v>
       </c>
       <c r="N52" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18644,16 +18699,16 @@
     </row>
     <row r="53" spans="1:14" ht="172.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="24" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
@@ -18670,7 +18725,7 @@
       </c>
       <c r="L53" s="20"/>
       <c r="M53" s="79" t="s">
-        <v>1599</v>
+        <v>1593</v>
       </c>
       <c r="N53" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18679,16 +18734,16 @@
     </row>
     <row r="54" spans="1:14" ht="118.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="24" t="s">
+        <v>862</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>863</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="D54" s="24" t="s">
         <v>864</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>865</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>866</v>
       </c>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -18705,7 +18760,7 @@
       </c>
       <c r="L54" s="20"/>
       <c r="M54" s="80" t="s">
-        <v>1600</v>
+        <v>1594</v>
       </c>
       <c r="N54" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18714,16 +18769,16 @@
     </row>
     <row r="55" spans="1:14" ht="303.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="24" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C55" s="24" t="s">
         <v>726</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E55" s="20"/>
       <c r="F55" s="20"/>
@@ -18740,7 +18795,7 @@
       </c>
       <c r="L55" s="20"/>
       <c r="M55" s="83" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="N55" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18749,16 +18804,16 @@
     </row>
     <row r="56" spans="1:14" ht="134.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>871</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>872</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>873</v>
       </c>
       <c r="E56" s="20"/>
       <c r="F56" s="20"/>
@@ -18775,7 +18830,7 @@
       </c>
       <c r="L56" s="20"/>
       <c r="M56" s="84" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="N56" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18784,16 +18839,16 @@
     </row>
     <row r="57" spans="1:14" ht="172.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>756</v>
+      </c>
+      <c r="D57" s="24" t="s">
         <v>875</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>877</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="20"/>
@@ -18810,7 +18865,7 @@
       </c>
       <c r="L57" s="20"/>
       <c r="M57" s="84" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="N57" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18819,16 +18874,16 @@
     </row>
     <row r="58" spans="1:14" ht="48.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="24" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>1522</v>
+        <v>1516</v>
       </c>
       <c r="E58" s="20"/>
       <c r="F58" s="20"/>
@@ -18845,7 +18900,7 @@
       </c>
       <c r="L58" s="20"/>
       <c r="M58" s="80" t="s">
-        <v>1601</v>
+        <v>1595</v>
       </c>
       <c r="N58" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18854,16 +18909,16 @@
     </row>
     <row r="59" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>881</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="D59" s="24" t="s">
         <v>882</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>883</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>884</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -18880,7 +18935,7 @@
       </c>
       <c r="L59" s="20"/>
       <c r="M59" s="80" t="s">
-        <v>1602</v>
+        <v>1596</v>
       </c>
       <c r="N59" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18889,22 +18944,22 @@
     </row>
     <row r="60" spans="1:14" ht="172.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="24" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>688</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E60" s="24" t="s">
         <v>590</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G60" s="24" t="s">
         <v>385</v>
@@ -18915,11 +18970,11 @@
         <v>410</v>
       </c>
       <c r="K60" s="52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L60" s="20"/>
       <c r="M60" s="80" t="s">
-        <v>1603</v>
+        <v>1597</v>
       </c>
       <c r="N60" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18928,16 +18983,16 @@
     </row>
     <row r="61" spans="1:14" ht="152.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="24" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C61" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E61" s="20"/>
       <c r="F61" s="20"/>
@@ -18950,11 +19005,11 @@
         <v>413</v>
       </c>
       <c r="K61" s="52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L61" s="20"/>
       <c r="M61" s="80" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="N61" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18963,16 +19018,16 @@
     </row>
     <row r="62" spans="1:14" ht="50.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="24" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>726</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E62" s="20"/>
       <c r="F62" s="20"/>
@@ -18989,7 +19044,7 @@
       </c>
       <c r="L62" s="20"/>
       <c r="M62" s="82" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="N62" s="24" t="str">
         <f t="shared" si="1"/>
@@ -18998,16 +19053,16 @@
     </row>
     <row r="63" spans="1:14" ht="70.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="24" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>688</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>1523</v>
+        <v>1517</v>
       </c>
       <c r="E63" s="20"/>
       <c r="F63" s="20"/>
@@ -19020,11 +19075,11 @@
         <v>386</v>
       </c>
       <c r="K63" s="52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L63" s="20"/>
       <c r="M63" s="80" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="N63" s="24" t="str">
         <f t="shared" si="1"/>
@@ -19033,16 +19088,16 @@
     </row>
     <row r="64" spans="1:14" ht="80.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="24" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C64" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>1524</v>
+        <v>1518</v>
       </c>
       <c r="E64" s="24" t="s">
         <v>717</v>
@@ -19063,7 +19118,7 @@
       </c>
       <c r="L64" s="20"/>
       <c r="M64" s="80" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="N64" s="24" t="str">
         <f t="shared" si="1"/>
@@ -19072,16 +19127,16 @@
     </row>
     <row r="65" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="24" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C65" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="E65" s="24" t="s">
         <v>717</v>
@@ -19100,7 +19155,7 @@
       </c>
       <c r="L65" s="20"/>
       <c r="M65" s="80" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="N65" s="24" t="str">
         <f t="shared" ref="N65:N94" si="2">A65&amp;" - "&amp;B65</f>
@@ -19109,16 +19164,16 @@
     </row>
     <row r="66" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="24" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B66" s="55" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C66" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="E66" s="24" t="s">
         <v>717</v>
@@ -19139,7 +19194,7 @@
       </c>
       <c r="L66" s="20"/>
       <c r="M66" s="80" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="N66" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19148,16 +19203,16 @@
     </row>
     <row r="67" spans="1:14" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="24" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="E67" s="20"/>
       <c r="F67" s="20"/>
@@ -19174,7 +19229,7 @@
       </c>
       <c r="L67" s="20"/>
       <c r="M67" s="82" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="N67" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19183,16 +19238,16 @@
     </row>
     <row r="68" spans="1:14" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="24" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D68" s="20" t="s">
-        <v>1467</v>
+        <v>1461</v>
       </c>
       <c r="E68" s="24" t="s">
         <v>717</v>
@@ -19213,7 +19268,7 @@
       </c>
       <c r="L68" s="20"/>
       <c r="M68" s="85" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="N68" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19222,19 +19277,19 @@
     </row>
     <row r="69" spans="1:14" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="B69" s="55" t="s">
+        <v>915</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E69" s="24" t="s">
         <v>916</v>
-      </c>
-      <c r="B69" s="55" t="s">
-        <v>917</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E69" s="24" t="s">
-        <v>918</v>
       </c>
       <c r="F69" s="24"/>
       <c r="G69" s="24" t="s">
@@ -19250,7 +19305,7 @@
       </c>
       <c r="L69" s="20"/>
       <c r="M69" s="80" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="N69" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19259,22 +19314,22 @@
     </row>
     <row r="70" spans="1:14" ht="58.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="B70" s="55" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>756</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="F70" s="24" t="s">
         <v>920</v>
-      </c>
-      <c r="B70" s="55" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>1529</v>
-      </c>
-      <c r="E70" s="24" t="s">
-        <v>921</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>922</v>
       </c>
       <c r="G70" s="24" t="s">
         <v>385</v>
@@ -19289,7 +19344,7 @@
       </c>
       <c r="L70" s="20"/>
       <c r="M70" s="79" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="N70" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19298,16 +19353,16 @@
     </row>
     <row r="71" spans="1:14" ht="25.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="24" t="s">
+        <v>922</v>
+      </c>
+      <c r="B71" s="55" t="s">
+        <v>923</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>924</v>
-      </c>
-      <c r="B71" s="55" t="s">
-        <v>925</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>926</v>
       </c>
       <c r="E71" s="20"/>
       <c r="F71" s="20"/>
@@ -19324,7 +19379,7 @@
       </c>
       <c r="L71" s="20"/>
       <c r="M71" s="79" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="N71" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19333,27 +19388,27 @@
     </row>
     <row r="72" spans="1:14" ht="237" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="24" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="D72" s="20" t="s">
-        <v>1464</v>
+        <v>1458</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>717</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="24" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="J72" s="52" t="s">
         <v>475</v>
@@ -19363,7 +19418,7 @@
       </c>
       <c r="L72" s="20"/>
       <c r="M72" s="80" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="N72" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19372,16 +19427,16 @@
     </row>
     <row r="73" spans="1:14" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="24" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C73" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="E73" s="20"/>
       <c r="F73" s="20"/>
@@ -19405,19 +19460,19 @@
     </row>
     <row r="74" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="24" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C74" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F74" s="24"/>
       <c r="G74" s="24" t="s">
@@ -19433,7 +19488,7 @@
       </c>
       <c r="L74" s="20"/>
       <c r="M74" s="81" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="N74" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19442,16 +19497,16 @@
     </row>
     <row r="75" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="24" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C75" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D75" s="24" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
@@ -19468,7 +19523,7 @@
       </c>
       <c r="L75" s="20"/>
       <c r="M75" s="80" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="N75" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19477,16 +19532,16 @@
     </row>
     <row r="76" spans="1:14" ht="74.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="24" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="C76" s="24" t="s">
         <v>726</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>1533</v>
+        <v>1527</v>
       </c>
       <c r="E76" s="20"/>
       <c r="F76" s="20"/>
@@ -19503,7 +19558,7 @@
       </c>
       <c r="L76" s="20"/>
       <c r="M76" s="86" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="N76" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19512,16 +19567,16 @@
     </row>
     <row r="77" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="24" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C77" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>1535</v>
+        <v>1529</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>632</v>
@@ -19540,7 +19595,7 @@
       </c>
       <c r="L77" s="20"/>
       <c r="M77" s="80" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="N77" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19549,16 +19604,16 @@
     </row>
     <row r="78" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="24" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C78" s="24" t="s">
         <v>726</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
@@ -19575,7 +19630,7 @@
       </c>
       <c r="L78" s="20"/>
       <c r="M78" s="80" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="N78" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19584,16 +19639,16 @@
     </row>
     <row r="79" spans="1:14" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="24" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C79" s="24" t="s">
         <v>726</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="E79" s="20"/>
       <c r="F79" s="20"/>
@@ -19610,7 +19665,7 @@
       </c>
       <c r="L79" s="20"/>
       <c r="M79" s="82" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="N79" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19619,16 +19674,16 @@
     </row>
     <row r="80" spans="1:14" ht="114.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="24" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C80" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="E80" s="20"/>
       <c r="F80" s="20"/>
@@ -19645,7 +19700,7 @@
       </c>
       <c r="L80" s="20"/>
       <c r="M80" s="80" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="N80" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19654,16 +19709,16 @@
     </row>
     <row r="81" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="24" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C81" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
@@ -19680,7 +19735,7 @@
       </c>
       <c r="L81" s="20"/>
       <c r="M81" s="87" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="N81" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19689,16 +19744,16 @@
     </row>
     <row r="82" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="24" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>1568</v>
+        <v>1562</v>
       </c>
       <c r="C82" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D82" s="24" t="s">
-        <v>1538</v>
+        <v>1532</v>
       </c>
       <c r="E82" s="20"/>
       <c r="F82" s="20"/>
@@ -19711,11 +19766,11 @@
         <v>530</v>
       </c>
       <c r="K82" s="52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L82" s="20"/>
       <c r="M82" s="88" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="N82" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19724,16 +19779,16 @@
     </row>
     <row r="83" spans="1:14" ht="62.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="24" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C83" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D83" s="20" t="s">
-        <v>1539</v>
+        <v>1533</v>
       </c>
       <c r="E83" s="20"/>
       <c r="F83" s="20"/>
@@ -19746,11 +19801,11 @@
         <v>530</v>
       </c>
       <c r="K83" s="52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L83" s="20"/>
       <c r="M83" s="80" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="N83" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19759,16 +19814,16 @@
     </row>
     <row r="84" spans="1:14" ht="50.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="24" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C84" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>1540</v>
+        <v>1534</v>
       </c>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -19781,11 +19836,11 @@
         <v>530</v>
       </c>
       <c r="K84" s="52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L84" s="20"/>
       <c r="M84" s="82" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="N84" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19794,16 +19849,16 @@
     </row>
     <row r="85" spans="1:14" ht="271.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="24" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C85" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>1459</v>
+        <v>1453</v>
       </c>
       <c r="E85" s="24" t="s">
         <v>717</v>
@@ -19822,7 +19877,7 @@
       </c>
       <c r="L85" s="20"/>
       <c r="M85" s="83" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="N85" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19831,16 +19886,16 @@
     </row>
     <row r="86" spans="1:14" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="24" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C86" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>1541</v>
+        <v>1535</v>
       </c>
       <c r="E86" s="58"/>
       <c r="F86" s="58"/>
@@ -19857,7 +19912,7 @@
       </c>
       <c r="L86" s="20"/>
       <c r="M86" s="80" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="N86" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19866,19 +19921,19 @@
     </row>
     <row r="87" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="24" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B87" s="24" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C87" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>1542</v>
+        <v>1536</v>
       </c>
       <c r="E87" s="24" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F87" s="24"/>
       <c r="G87" s="24" t="s">
@@ -19894,7 +19949,7 @@
       </c>
       <c r="L87" s="20"/>
       <c r="M87" s="80" t="s">
-        <v>1604</v>
+        <v>1598</v>
       </c>
       <c r="N87" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19903,16 +19958,16 @@
     </row>
     <row r="88" spans="1:14" ht="130" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="24" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C88" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>1543</v>
+        <v>1537</v>
       </c>
       <c r="E88" s="20"/>
       <c r="F88" s="20"/>
@@ -19929,7 +19984,7 @@
       </c>
       <c r="L88" s="20"/>
       <c r="M88" s="80" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="N88" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19938,16 +19993,16 @@
     </row>
     <row r="89" spans="1:14" ht="146.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="24" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B89" s="24" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C89" s="24" t="s">
         <v>726</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>1544</v>
+        <v>1538</v>
       </c>
       <c r="E89" s="20"/>
       <c r="F89" s="20"/>
@@ -19964,7 +20019,7 @@
       </c>
       <c r="L89" s="20"/>
       <c r="M89" s="80" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="N89" s="24" t="str">
         <f t="shared" si="2"/>
@@ -19973,19 +20028,19 @@
     </row>
     <row r="90" spans="1:14" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="24" t="s">
+        <v>978</v>
+      </c>
+      <c r="B90" s="55" t="s">
+        <v>979</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>756</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E90" s="24" t="s">
         <v>980</v>
-      </c>
-      <c r="B90" s="55" t="s">
-        <v>981</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>1545</v>
-      </c>
-      <c r="E90" s="24" t="s">
-        <v>982</v>
       </c>
       <c r="F90" s="24"/>
       <c r="G90" s="24" t="s">
@@ -20001,7 +20056,7 @@
       </c>
       <c r="L90" s="20"/>
       <c r="M90" s="79" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="N90" s="24" t="str">
         <f t="shared" si="2"/>
@@ -20010,16 +20065,16 @@
     </row>
     <row r="91" spans="1:14" ht="63.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>983</v>
+      </c>
+      <c r="C91" s="24" t="s">
         <v>984</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="D91" s="55" t="s">
         <v>985</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>986</v>
-      </c>
-      <c r="D91" s="55" t="s">
-        <v>987</v>
       </c>
       <c r="E91" s="20"/>
       <c r="F91" s="20"/>
@@ -20036,7 +20091,7 @@
       </c>
       <c r="L91" s="20"/>
       <c r="M91" s="80" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="N91" s="24" t="str">
         <f t="shared" si="2"/>
@@ -20045,16 +20100,16 @@
     </row>
     <row r="92" spans="1:14" ht="50.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="24" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B92" s="24" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C92" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>1546</v>
+        <v>1540</v>
       </c>
       <c r="E92" s="20"/>
       <c r="F92" s="20"/>
@@ -20067,11 +20122,11 @@
         <v>467</v>
       </c>
       <c r="K92" s="52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L92" s="20"/>
       <c r="M92" s="81" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="N92" s="24" t="str">
         <f t="shared" si="2"/>
@@ -20080,19 +20135,19 @@
     </row>
     <row r="93" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="24" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B93" s="24" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C93" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>1547</v>
+        <v>1541</v>
       </c>
       <c r="E93" s="24" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F93" s="24"/>
       <c r="G93" s="24" t="s">
@@ -20108,7 +20163,7 @@
       </c>
       <c r="L93" s="20"/>
       <c r="M93" s="80" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="N93" s="24" t="str">
         <f t="shared" si="2"/>
@@ -20117,16 +20172,16 @@
     </row>
     <row r="94" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="24" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B94" s="24" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C94" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D94" s="24" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E94" s="24" t="s">
         <v>717</v>
@@ -20145,7 +20200,7 @@
       </c>
       <c r="L94" s="20"/>
       <c r="M94" s="80" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="N94" s="24" t="str">
         <f t="shared" si="2"/>
@@ -20154,16 +20209,16 @@
     </row>
     <row r="95" spans="1:14" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="24" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B95" s="24" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C95" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D95" s="24" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="E95" s="24" t="s">
         <v>717</v>
@@ -20182,7 +20237,7 @@
       </c>
       <c r="L95" s="20"/>
       <c r="M95" s="80" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="N95" s="24" t="str">
         <f t="shared" ref="N95:N120" si="3">A95&amp;" - "&amp;B95</f>
@@ -20191,16 +20246,16 @@
     </row>
     <row r="96" spans="1:14" ht="98.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="24" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B96" s="24" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C96" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>1548</v>
+        <v>1542</v>
       </c>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
@@ -20217,7 +20272,7 @@
       </c>
       <c r="L96" s="20"/>
       <c r="M96" s="80" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="N96" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20226,16 +20281,16 @@
     </row>
     <row r="97" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="24" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B97" s="24" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C97" s="24" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>1549</v>
+        <v>1543</v>
       </c>
       <c r="E97" s="20"/>
       <c r="F97" s="20"/>
@@ -20252,7 +20307,7 @@
       </c>
       <c r="L97" s="20"/>
       <c r="M97" s="80" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="N97" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20261,16 +20316,16 @@
     </row>
     <row r="98" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="24" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B98" s="24" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C98" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="E98" s="20"/>
       <c r="F98" s="20"/>
@@ -20294,16 +20349,16 @@
     </row>
     <row r="99" spans="1:14" ht="62.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="24" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>785</v>
+      </c>
+      <c r="D99" s="24" t="s">
         <v>1012</v>
-      </c>
-      <c r="B99" s="24" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>1014</v>
       </c>
       <c r="E99" s="20"/>
       <c r="F99" s="20"/>
@@ -20313,14 +20368,14 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="52" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="K99" s="52" t="s">
         <v>640</v>
       </c>
       <c r="L99" s="20"/>
       <c r="M99" s="80" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="N99" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20329,16 +20384,16 @@
     </row>
     <row r="100" spans="1:14" ht="147.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="24" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C100" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D100" s="24" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E100" s="24" t="s">
         <v>717</v>
@@ -20359,7 +20414,7 @@
       </c>
       <c r="L100" s="20"/>
       <c r="M100" s="80" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="N100" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20368,19 +20423,19 @@
     </row>
     <row r="101" spans="1:14" ht="50.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="24" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="D101" s="24" t="s">
         <v>1021</v>
       </c>
-      <c r="B101" s="24" t="s">
+      <c r="E101" s="24" t="s">
         <v>1022</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>1023</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>1024</v>
       </c>
       <c r="F101" s="24"/>
       <c r="G101" s="24" t="s">
@@ -20396,7 +20451,7 @@
       </c>
       <c r="L101" s="20"/>
       <c r="M101" s="79" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="N101" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20405,16 +20460,16 @@
     </row>
     <row r="102" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="24" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>1444</v>
+        <v>1438</v>
       </c>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
@@ -20431,7 +20486,7 @@
       </c>
       <c r="L102" s="20"/>
       <c r="M102" s="82" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="N102" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20440,16 +20495,16 @@
     </row>
     <row r="103" spans="1:14" ht="74.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="24" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>1550</v>
+        <v>1544</v>
       </c>
       <c r="C103" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>1551</v>
+        <v>1545</v>
       </c>
       <c r="E103" s="24" t="s">
         <v>717</v>
@@ -20470,7 +20525,7 @@
       </c>
       <c r="L103" s="20"/>
       <c r="M103" s="82" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="N103" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20479,16 +20534,16 @@
     </row>
     <row r="104" spans="1:14" ht="74.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="24" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>785</v>
+      </c>
+      <c r="D104" s="24" t="s">
         <v>1032</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>787</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>1034</v>
       </c>
       <c r="E104" s="24" t="s">
         <v>717</v>
@@ -20502,14 +20557,14 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="52" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="K104" s="52" t="s">
         <v>692</v>
       </c>
       <c r="L104" s="20"/>
       <c r="M104" s="79" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="N104" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20518,16 +20573,16 @@
     </row>
     <row r="105" spans="1:14" ht="194.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="24" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D105" s="20" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
@@ -20537,14 +20592,14 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
       <c r="J105" s="52" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="K105" s="52" t="s">
         <v>692</v>
       </c>
       <c r="L105" s="20"/>
       <c r="M105" s="80" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="N105" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20553,19 +20608,19 @@
     </row>
     <row r="106" spans="1:14" ht="215.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="24" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="D106" s="55" t="s">
         <v>1040</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="E106" s="24" t="s">
         <v>1041</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="D106" s="55" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E106" s="24" t="s">
-        <v>1043</v>
       </c>
       <c r="F106" s="24"/>
       <c r="G106" s="24" t="s">
@@ -20583,7 +20638,7 @@
       </c>
       <c r="L106" s="20"/>
       <c r="M106" s="79" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="N106" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20592,16 +20647,16 @@
     </row>
     <row r="107" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="24" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C107" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D107" s="20" t="s">
-        <v>1552</v>
+        <v>1546</v>
       </c>
       <c r="E107" s="24" t="s">
         <v>723</v>
@@ -20612,7 +20667,7 @@
       </c>
       <c r="H107" s="20"/>
       <c r="I107" s="24" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="J107" s="54" t="s">
         <v>530</v>
@@ -20622,7 +20677,7 @@
       </c>
       <c r="L107" s="20"/>
       <c r="M107" s="79" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="N107" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20631,19 +20686,19 @@
     </row>
     <row r="108" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="24" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B108" s="24" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C108" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D108" s="20" t="s">
-        <v>1553</v>
+        <v>1547</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F108" s="24"/>
       <c r="G108" s="24" t="s">
@@ -20661,7 +20716,7 @@
       </c>
       <c r="L108" s="20"/>
       <c r="M108" s="79" t="s">
-        <v>1605</v>
+        <v>1599</v>
       </c>
       <c r="N108" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20670,19 +20725,19 @@
     </row>
     <row r="109" spans="1:14" ht="158.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="24" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B109" s="24" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C109" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D109" s="24" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F109" s="24"/>
       <c r="G109" s="24" t="s">
@@ -20700,7 +20755,7 @@
       </c>
       <c r="L109" s="20"/>
       <c r="M109" s="79" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="N109" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20709,16 +20764,16 @@
     </row>
     <row r="110" spans="1:14" ht="146.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="24" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B110" s="24" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C110" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E110" s="20"/>
       <c r="F110" s="20"/>
@@ -20744,19 +20799,19 @@
     </row>
     <row r="111" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="24" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B111" s="24" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C111" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D111" s="24" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E111" s="24" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F111" s="24"/>
       <c r="G111" s="24" t="s">
@@ -20774,7 +20829,7 @@
       </c>
       <c r="L111" s="20"/>
       <c r="M111" s="79" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="N111" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20783,16 +20838,16 @@
     </row>
     <row r="112" spans="1:14" ht="74.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="24" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B112" s="24" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C112" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D112" s="24" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E112" s="20"/>
       <c r="F112" s="20"/>
@@ -20807,11 +20862,11 @@
         <v>386</v>
       </c>
       <c r="K112" s="54" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L112" s="20"/>
       <c r="M112" s="79" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="N112" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20820,16 +20875,16 @@
     </row>
     <row r="113" spans="1:14" ht="170.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="24" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B113" s="46" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="D113" s="24" t="s">
         <v>1069</v>
-      </c>
-      <c r="B113" s="46" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C113" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>1071</v>
       </c>
       <c r="E113" s="20"/>
       <c r="F113" s="20"/>
@@ -20848,7 +20903,7 @@
       </c>
       <c r="L113" s="20"/>
       <c r="M113" s="79" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="N113" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20857,16 +20912,16 @@
     </row>
     <row r="114" spans="1:14" ht="70.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="24" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B114" s="24" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="D114" s="24" t="s">
         <v>1073</v>
-      </c>
-      <c r="B114" s="24" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C114" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="D114" s="24" t="s">
-        <v>1075</v>
       </c>
       <c r="E114" s="20"/>
       <c r="F114" s="20"/>
@@ -20885,7 +20940,7 @@
       </c>
       <c r="L114" s="20"/>
       <c r="M114" s="79" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="N114" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20894,16 +20949,16 @@
     </row>
     <row r="115" spans="1:14" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="24" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B115" s="24" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C115" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D115" s="24" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E115" s="20"/>
       <c r="F115" s="20"/>
@@ -20912,7 +20967,7 @@
       </c>
       <c r="H115" s="20"/>
       <c r="I115" s="24" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="J115" s="54" t="s">
         <v>475</v>
@@ -20922,7 +20977,7 @@
       </c>
       <c r="L115" s="20"/>
       <c r="M115" s="80" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="N115" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20931,16 +20986,16 @@
     </row>
     <row r="116" spans="1:14" ht="118.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="24" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C116" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D116" s="24" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="E116" s="20"/>
       <c r="F116" s="20"/>
@@ -20959,7 +21014,7 @@
       </c>
       <c r="L116" s="20"/>
       <c r="M116" s="79" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="N116" s="24" t="str">
         <f t="shared" si="3"/>
@@ -20968,16 +21023,16 @@
     </row>
     <row r="117" spans="1:14" ht="110.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="24" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B117" s="24" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C117" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D117" s="24" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E117" s="20"/>
       <c r="F117" s="20"/>
@@ -21003,16 +21058,16 @@
     </row>
     <row r="118" spans="1:14" ht="92" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="24" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C118" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D118" s="24" t="s">
-        <v>1463</v>
+        <v>1457</v>
       </c>
       <c r="E118" s="24" t="s">
         <v>717</v>
@@ -21023,7 +21078,7 @@
       </c>
       <c r="H118" s="20"/>
       <c r="I118" s="24" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="J118" s="54" t="s">
         <v>449</v>
@@ -21033,7 +21088,7 @@
       </c>
       <c r="L118" s="20"/>
       <c r="M118" s="79" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="N118" s="24" t="str">
         <f t="shared" si="3"/>
@@ -21042,26 +21097,26 @@
     </row>
     <row r="119" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="24" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C119" s="24" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="D119" s="24" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="E119" s="24" t="s">
         <v>723</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H119" s="60" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="I119" s="20"/>
       <c r="J119" s="52" t="s">
@@ -21072,7 +21127,7 @@
       </c>
       <c r="L119" s="20"/>
       <c r="M119" s="80" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="N119" s="24" t="str">
         <f t="shared" si="3"/>
@@ -21081,16 +21136,16 @@
     </row>
     <row r="120" spans="1:14" ht="328.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="24" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B120" s="24" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C120" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E120" s="20"/>
       <c r="F120" s="20"/>
@@ -21105,11 +21160,11 @@
         <v>386</v>
       </c>
       <c r="K120" s="54" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L120" s="20"/>
       <c r="M120" s="79" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="N120" s="24" t="str">
         <f t="shared" si="3"/>
@@ -21118,21 +21173,21 @@
     </row>
     <row r="121" spans="1:14" ht="110.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="24" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C121" s="24" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>1442</v>
+        <v>1436</v>
       </c>
       <c r="E121" s="20"/>
       <c r="F121" s="20"/>
       <c r="G121" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H121" s="60" t="s">
         <v>596</v>
@@ -21146,7 +21201,7 @@
       </c>
       <c r="L121" s="20"/>
       <c r="M121" s="79" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="N121" s="24" t="str">
         <f t="shared" ref="N121:N141" si="4">A121&amp;" - "&amp;B121</f>
@@ -21155,19 +21210,19 @@
     </row>
     <row r="122" spans="1:14" ht="50.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="24" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B122" s="24" t="s">
-        <v>1458</v>
+        <v>1452</v>
       </c>
       <c r="C122" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="E122" s="24" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="F122" s="24"/>
       <c r="G122" s="24" t="s">
@@ -21185,7 +21240,7 @@
       </c>
       <c r="L122" s="20"/>
       <c r="M122" s="79" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="N122" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21194,16 +21249,16 @@
     </row>
     <row r="123" spans="1:14" ht="145" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="24" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C123" s="24" t="s">
         <v>726</v>
       </c>
       <c r="D123" s="20" t="s">
-        <v>1554</v>
+        <v>1548</v>
       </c>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
@@ -21212,7 +21267,7 @@
       </c>
       <c r="H123" s="20"/>
       <c r="I123" s="24" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="J123" s="54" t="s">
         <v>530</v>
@@ -21222,7 +21277,7 @@
       </c>
       <c r="L123" s="20"/>
       <c r="M123" s="79" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="N123" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21231,19 +21286,19 @@
     </row>
     <row r="124" spans="1:14" ht="194.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="24" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B124" s="24" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C124" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="E124" s="24" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="F124" s="24"/>
       <c r="G124" s="24" t="s">
@@ -21261,7 +21316,7 @@
       </c>
       <c r="L124" s="20"/>
       <c r="M124" s="79" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="N124" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21270,16 +21325,16 @@
     </row>
     <row r="125" spans="1:14" ht="88.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="24" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B125" s="24" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C125" s="24" t="s">
         <v>726</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="E125" s="20"/>
       <c r="F125" s="20"/>
@@ -21294,11 +21349,11 @@
         <v>413</v>
       </c>
       <c r="K125" s="54" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="L125" s="20"/>
       <c r="M125" s="79" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="N125" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21307,16 +21362,16 @@
     </row>
     <row r="126" spans="1:14" ht="86.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="24" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B126" s="24" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C126" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="E126" s="24" t="s">
         <v>632</v>
@@ -21326,7 +21381,7 @@
         <v>591</v>
       </c>
       <c r="H126" s="60" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="I126" s="20"/>
       <c r="J126" s="52" t="s">
@@ -21337,7 +21392,7 @@
       </c>
       <c r="L126" s="20"/>
       <c r="M126" s="79" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="N126" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21346,23 +21401,23 @@
     </row>
     <row r="127" spans="1:14" ht="133" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="24" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B127" s="24" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="C127" s="24" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="E127" s="20"/>
       <c r="F127" s="24" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="G127" s="24" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H127" s="60" t="s">
         <v>596</v>
@@ -21376,7 +21431,7 @@
       </c>
       <c r="L127" s="20"/>
       <c r="M127" s="79" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="N127" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21385,29 +21440,29 @@
     </row>
     <row r="128" spans="1:14" ht="120.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="24" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B128" s="24" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="C128" s="24" t="s">
         <v>716</v>
       </c>
       <c r="D128" s="55" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E128" s="24" t="s">
         <v>1127</v>
       </c>
-      <c r="E128" s="24" t="s">
-        <v>1129</v>
-      </c>
       <c r="F128" s="24" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="G128" s="24" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H128" s="20"/>
       <c r="I128" s="24" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="J128" s="54" t="s">
         <v>413</v>
@@ -21417,7 +21472,7 @@
       </c>
       <c r="L128" s="20"/>
       <c r="M128" s="80" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="N128" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21426,19 +21481,19 @@
     </row>
     <row r="129" spans="1:14" ht="110" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="24" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C129" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>1451</v>
+        <v>1445</v>
       </c>
       <c r="E129" s="24" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="F129" s="24"/>
       <c r="G129" s="24" t="s">
@@ -21446,7 +21501,7 @@
       </c>
       <c r="H129" s="20"/>
       <c r="I129" s="24" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="J129" s="54" t="s">
         <v>546</v>
@@ -21456,7 +21511,7 @@
       </c>
       <c r="L129" s="20"/>
       <c r="M129" s="79" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="N129" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21465,16 +21520,16 @@
     </row>
     <row r="130" spans="1:14" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="24" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="D130" s="24" t="s">
         <v>1137</v>
-      </c>
-      <c r="B130" s="24" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C130" s="24" t="s">
-        <v>751</v>
-      </c>
-      <c r="D130" s="24" t="s">
-        <v>1139</v>
       </c>
       <c r="E130" s="20"/>
       <c r="F130" s="20"/>
@@ -21483,7 +21538,7 @@
       </c>
       <c r="H130" s="20"/>
       <c r="I130" s="24" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="J130" s="54" t="s">
         <v>475</v>
@@ -21493,7 +21548,7 @@
       </c>
       <c r="L130" s="20"/>
       <c r="M130" s="80" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="N130" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21502,19 +21557,19 @@
     </row>
     <row r="131" spans="1:14" ht="121.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="24" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C131" s="24" t="s">
         <v>678</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>1555</v>
+        <v>1549</v>
       </c>
       <c r="E131" s="24" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F131" s="24"/>
       <c r="G131" s="24" t="s">
@@ -21522,7 +21577,7 @@
       </c>
       <c r="H131" s="20"/>
       <c r="I131" s="24" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="J131" s="54" t="s">
         <v>449</v>
@@ -21532,7 +21587,7 @@
       </c>
       <c r="L131" s="20"/>
       <c r="M131" s="79" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="N131" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21541,19 +21596,19 @@
     </row>
     <row r="132" spans="1:14" ht="86.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="24" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B132" s="24" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="C132" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D132" s="24" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E132" s="24" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F132" s="24"/>
       <c r="G132" s="24" t="s">
@@ -21571,7 +21626,7 @@
       </c>
       <c r="L132" s="20"/>
       <c r="M132" s="79" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="N132" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21580,19 +21635,19 @@
     </row>
     <row r="133" spans="1:14" ht="113.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="24" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B133" s="24" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="D133" s="24" t="s">
         <v>1149</v>
       </c>
-      <c r="B133" s="24" t="s">
+      <c r="E133" s="24" t="s">
         <v>1150</v>
-      </c>
-      <c r="C133" s="24" t="s">
-        <v>770</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E133" s="24" t="s">
-        <v>1152</v>
       </c>
       <c r="F133" s="24"/>
       <c r="G133" s="24" t="s">
@@ -21600,13 +21655,13 @@
       </c>
       <c r="H133" s="20"/>
       <c r="I133" s="24" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="J133" s="54" t="s">
         <v>410</v>
       </c>
       <c r="K133" s="54" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L133" s="20"/>
       <c r="M133" s="79"/>
@@ -21617,16 +21672,16 @@
     </row>
     <row r="134" spans="1:14" ht="127.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="24" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="B134" s="24" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C134" s="24" t="s">
         <v>721</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="E134" s="20"/>
       <c r="F134" s="20"/>
@@ -21635,7 +21690,7 @@
       </c>
       <c r="H134" s="20"/>
       <c r="I134" s="24" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="J134" s="54" t="s">
         <v>546</v>
@@ -21645,7 +21700,7 @@
       </c>
       <c r="L134" s="20"/>
       <c r="M134" s="79" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="N134" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21654,19 +21709,19 @@
     </row>
     <row r="135" spans="1:14" ht="91" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="24" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B135" s="24" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C135" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D135" s="24" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E135" s="24" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F135" s="24"/>
       <c r="G135" s="24" t="s">
@@ -21684,7 +21739,7 @@
       </c>
       <c r="L135" s="20"/>
       <c r="M135" s="79" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="N135" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21693,19 +21748,19 @@
     </row>
     <row r="136" spans="1:14" ht="68.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="24" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B136" s="24" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>984</v>
+      </c>
+      <c r="D136" s="24" t="s">
         <v>1162</v>
       </c>
-      <c r="B136" s="24" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C136" s="24" t="s">
-        <v>986</v>
-      </c>
-      <c r="D136" s="24" t="s">
-        <v>1164</v>
-      </c>
       <c r="E136" s="24" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F136" s="24"/>
       <c r="G136" s="24" t="s">
@@ -21721,7 +21776,7 @@
       </c>
       <c r="L136" s="20"/>
       <c r="M136" s="79" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="N136" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21730,16 +21785,16 @@
     </row>
     <row r="137" spans="1:14" ht="47.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="24" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B137" s="55" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C137" s="24" t="s">
         <v>726</v>
       </c>
       <c r="D137" s="24" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E137" s="20"/>
       <c r="F137" s="20"/>
@@ -21756,7 +21811,7 @@
       </c>
       <c r="L137" s="20"/>
       <c r="M137" s="79" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="N137" s="24" t="str">
         <f t="shared" si="4"/>
@@ -21765,21 +21820,21 @@
     </row>
     <row r="138" spans="1:14" ht="47.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="24" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B138" s="55" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="C138" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>1556</v>
+        <v>1550</v>
       </c>
       <c r="E138" s="20"/>
       <c r="F138" s="20"/>
       <c r="G138" s="24" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
@@ -21798,21 +21853,21 @@
     </row>
     <row r="139" spans="1:14" ht="47.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="24" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B139" s="55" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C139" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D139" s="24" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E139" s="20"/>
       <c r="F139" s="20"/>
       <c r="G139" s="24" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H139" s="20"/>
       <c r="I139" s="20"/>
@@ -21831,16 +21886,16 @@
     </row>
     <row r="140" spans="1:14" ht="47.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="24" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B140" s="55" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C140" s="24" t="s">
         <v>706</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>1557</v>
+        <v>1551</v>
       </c>
       <c r="E140" s="20"/>
       <c r="F140" s="20"/>
@@ -21862,16 +21917,16 @@
     </row>
     <row r="141" spans="1:14" ht="47.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="24" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="B141" s="55" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C141" s="24" t="s">
         <v>695</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>1558</v>
+        <v>1552</v>
       </c>
       <c r="E141" s="20"/>
       <c r="F141" s="20"/>
@@ -21919,10 +21974,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057EA134-8119-C141-96AC-8F3F758DF5E6}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -21933,10 +21988,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="47" t="s">
-        <v>1495</v>
+        <v>1489</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>1563</v>
+        <v>1557</v>
       </c>
       <c r="C1" s="47" t="s">
         <v>374</v>
@@ -21966,7 +22021,7 @@
         <v>719</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1504</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="140" x14ac:dyDescent="0.15">
@@ -21978,282 +22033,319 @@
         <v>728</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="24"/>
       <c r="B6" s="24" t="s">
         <v>739</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="C6" s="91" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="24"/>
       <c r="B7" s="24" t="s">
-        <v>749</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+        <v>739</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="24"/>
       <c r="B9" s="24" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A10" s="24"/>
       <c r="B10" s="24" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24" t="s">
-        <v>773</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+        <v>754</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="24"/>
       <c r="B12" s="24" t="s">
-        <v>781</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>754</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="24"/>
       <c r="B13" s="24" t="s">
-        <v>788</v>
+        <v>759</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="84" x14ac:dyDescent="0.15">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A14" s="24"/>
       <c r="B14" s="24" t="s">
-        <v>802</v>
+        <v>766</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="24"/>
       <c r="B15" s="24" t="s">
-        <v>840</v>
+        <v>771</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="24"/>
       <c r="B16" s="24" t="s">
-        <v>903</v>
+        <v>779</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="24"/>
       <c r="B17" s="24" t="s">
-        <v>1003</v>
+        <v>786</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A18" s="24"/>
       <c r="B18" s="24" t="s">
-        <v>1012</v>
+        <v>800</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A19" s="24"/>
       <c r="B19" s="24" t="s">
-        <v>1032</v>
+        <v>838</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="182" x14ac:dyDescent="0.15">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="24"/>
       <c r="B20" s="24" t="s">
-        <v>1037</v>
+        <v>901</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A21" s="24"/>
       <c r="B21" s="24" t="s">
-        <v>1094</v>
+        <v>1001</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A22" s="24"/>
       <c r="B22" s="24" t="s">
-        <v>1110</v>
+        <v>1010</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="319" x14ac:dyDescent="0.15">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A23" s="24"/>
       <c r="B23" s="24" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>1030</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="182" x14ac:dyDescent="0.15">
       <c r="A24" s="24"/>
       <c r="B24" s="24" t="s">
-        <v>1168</v>
+        <v>1035</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>1171</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="24"/>
       <c r="B25" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="140" x14ac:dyDescent="0.15">
+        <v>1092</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A26" s="24"/>
       <c r="B26" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>1108</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="319" x14ac:dyDescent="0.15">
       <c r="A27" s="24"/>
       <c r="B27" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+        <v>1123</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="24"/>
       <c r="B28" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="98" x14ac:dyDescent="0.15">
+        <v>1166</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="24"/>
       <c r="B29" s="24" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="71" customHeight="1" x14ac:dyDescent="0.15">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="140" x14ac:dyDescent="0.15">
       <c r="A30" s="24"/>
       <c r="B30" s="24" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="24"/>
       <c r="B31" s="24" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A32" s="24"/>
       <c r="B32" s="24" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="224" x14ac:dyDescent="0.15">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A33" s="24"/>
       <c r="B33" s="24" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="24"/>
       <c r="B34" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+        <v>424</v>
+      </c>
+      <c r="C34" s="93" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A35" s="24"/>
       <c r="B35" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="224" x14ac:dyDescent="0.15">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>673</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K35">
-    <sortCondition ref="B2:B35"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K39">
+    <sortCondition ref="B2:B39"/>
   </sortState>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C23" r:id="rId1" display="Playbook 1: Create a standard reporting format and method for social platforms for reporting false accounts. _x000a_Playbook 2: _x000a_- Is the account compromised? _x000a_- Is it known to be associated with threat actors _x000a_- common/random name _x000a_- Names violate terms of service _x000a_- Dormant account _x000a_- Change of country IP_x000a_- Social network growth patterns (number of friends etc) _x000a_- Evidence of linguistic artifacts (multiple fingerprints, terms/idiosyncrasies )_x000a_- Community vs. narrative vs. individuals _x000a_Playbook 3: Report suspected bots. _x000a_- Report ToS violations. _x000a_-  In all playbooks the platform must force user verification, credential reset and enable MFA. Suspend the account if it cannot be verified._x000a_Playbook 1: Use sites like https://haveibeenpwned.com to detect compromised and at risk user accounts. _x000a_Playbook 2: Monitor for unusual account usage (use of VPN, new geographic location, unusual usage hours, etc). _x000a_Playbook 3: Detect sudden deviation in user sentiment such as suddenly dropping hashtags linked to extremist content._x000a_Playbook 4: Purchase &quot;likes&quot;, &quot;retweets&quot; and other vehicles which identify a bot and/or hijacked account. Ban the account._x000a_Playbook 5: Detect hijacked account and spam their posts. &quot;OP is a known disinformation bot. http://link.to.proof[.]com&quot;" xr:uid="{5873286A-9973-9A4B-BE0C-6BB677F14A3C}"/>
+    <hyperlink ref="C27" r:id="rId1" display="Playbook 1: Create a standard reporting format and method for social platforms for reporting false accounts. _x000a_Playbook 2: _x000a_- Is the account compromised? _x000a_- Is it known to be associated with threat actors _x000a_- common/random name _x000a_- Names violate terms of service _x000a_- Dormant account _x000a_- Change of country IP_x000a_- Social network growth patterns (number of friends etc) _x000a_- Evidence of linguistic artifacts (multiple fingerprints, terms/idiosyncrasies )_x000a_- Community vs. narrative vs. individuals _x000a_Playbook 3: Report suspected bots. _x000a_- Report ToS violations. _x000a_-  In all playbooks the platform must force user verification, credential reset and enable MFA. Suspend the account if it cannot be verified._x000a_Playbook 1: Use sites like https://haveibeenpwned.com to detect compromised and at risk user accounts. _x000a_Playbook 2: Monitor for unusual account usage (use of VPN, new geographic location, unusual usage hours, etc). _x000a_Playbook 3: Detect sudden deviation in user sentiment such as suddenly dropping hashtags linked to extremist content._x000a_Playbook 4: Purchase &quot;likes&quot;, &quot;retweets&quot; and other vehicles which identify a bot and/or hijacked account. Ban the account._x000a_Playbook 5: Detect hijacked account and spam their posts. &quot;OP is a known disinformation bot. http://link.to.proof[.]com&quot;" xr:uid="{5873286A-9973-9A4B-BE0C-6BB677F14A3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AMITT_MASTER_DATA/AMITT_FRAMEWORKS_MASTER.xlsx
+++ b/AMITT_MASTER_DATA/AMITT_FRAMEWORKS_MASTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sara/Dropbox/SJT_Projects_current/AMITT/CODE_AND_DATA/github_cogseccollab_AMITT/AMITT_MASTER_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C3D11D-79CE-0440-8B95-BB4A9A1F9532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A563B6-C24E-BB42-9014-A4E35A84CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5420" yWindow="-24700" windowWidth="37000" windowHeight="23920" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="-20500" windowWidth="37000" windowHeight="21100" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADMIN_README" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="1794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="1811">
   <si>
     <t>MASTER COPY OF AMITT TTPS</t>
   </si>
@@ -7146,6 +7146,57 @@
   </si>
   <si>
     <t>Look at Ad trackers, Tracking ids, Tracking ads, Re-use of as features (language, name, themes, plug-in, re-use/versions)</t>
+  </si>
+  <si>
+    <t>name_DE</t>
+  </si>
+  <si>
+    <t>summary_DE</t>
+  </si>
+  <si>
+    <t>Planung</t>
+  </si>
+  <si>
+    <t>Vorbereitung</t>
+  </si>
+  <si>
+    <t>Durchführung</t>
+  </si>
+  <si>
+    <t>Auswertung</t>
+  </si>
+  <si>
+    <t>strategische Planung</t>
+  </si>
+  <si>
+    <t>objektive Planung</t>
+  </si>
+  <si>
+    <t>Menschen entwickeln</t>
+  </si>
+  <si>
+    <t>Netzwerke entwickeln</t>
+  </si>
+  <si>
+    <t>individualisierte Wählerwerbung</t>
+  </si>
+  <si>
+    <t>Inhalte entwickeln</t>
+  </si>
+  <si>
+    <t>Kanalauswahl</t>
+  </si>
+  <si>
+    <t>Ankurbelung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research intended audience.  Includes audience segmentation, hot-button issues etc. </t>
+  </si>
+  <si>
+    <t>Design the campaign(s) needed to meet the incident goals</t>
+  </si>
+  <si>
+    <t>Identify groups that can best be used to meet incident goals</t>
   </si>
 </sst>
 </file>
@@ -7458,7 +7509,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -7761,6 +7812,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8588,7 +8651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057EA134-8119-C141-96AC-8F3F758DF5E6}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+    <sheetView zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -12220,23 +12283,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ10"/>
+  <dimension ref="A1:AML10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="1024" width="16.33203125" style="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="54.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="1026" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>1421</v>
       </c>
@@ -12244,121 +12308,153 @@
         <v>57</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>61</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="24" t="s">
+        <v>1796</v>
+      </c>
+      <c r="D2" s="20">
         <v>1</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="E2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="30" t="str">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="str">
         <f>A2&amp;" - "&amp;B2</f>
         <v>P01 - Planning</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="24" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D3" s="20">
         <v>2</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="30" t="str">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="str">
         <f>A3&amp;" - "&amp;B3</f>
         <v>P02 - Preparation</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="24" t="s">
+        <v>1798</v>
+      </c>
+      <c r="D4" s="20">
         <v>3</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="E4" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="30" t="str">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="str">
         <f>A4&amp;" - "&amp;B4</f>
         <v>P03 - Execution</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="24" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="E5" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="30" t="str">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="str">
         <f>A5&amp;" - "&amp;B5</f>
         <v>P04 - Evaluation</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
-      <c r="E6" s="33"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="34"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="34"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="37"/>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.27777777777777801"/>
@@ -12374,24 +12470,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ13"/>
+  <dimension ref="A1:AML13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="86.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="1" customWidth="1"/>
-    <col min="7" max="1024" width="16.33203125" style="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="1" customWidth="1"/>
+    <col min="6" max="6" width="74.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
+    <col min="9" max="1026" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>1421</v>
       </c>
@@ -12399,19 +12497,25 @@
         <v>57</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="G1" s="29" t="s">
+        <v>1795</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>74</v>
       </c>
@@ -12419,20 +12523,24 @@
         <v>75</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="20">
+      <c r="E2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="30" t="str">
-        <f t="shared" ref="F2:F13" si="0">A2&amp;" - "&amp;B2</f>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="str">
+        <f t="shared" ref="H2:H13" si="0">A2&amp;" - "&amp;B2</f>
         <v>TA01 - Strategic Planning</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="86.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="86.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>77</v>
       </c>
@@ -12440,20 +12548,24 @@
         <v>78</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="20">
+      <c r="E3" s="20">
         <v>2</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="F3" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="30" t="str">
+      <c r="G3" s="30"/>
+      <c r="H3" s="30" t="str">
         <f t="shared" si="0"/>
         <v>TA02 - Objective Planning</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>80</v>
       </c>
@@ -12461,20 +12573,24 @@
         <v>81</v>
       </c>
       <c r="C4" s="24" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="20">
+      <c r="E4" s="20">
         <v>3</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="F4" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="30" t="str">
+      <c r="G4" s="30"/>
+      <c r="H4" s="30" t="str">
         <f t="shared" si="0"/>
         <v>TA03 - Develop People</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>83</v>
       </c>
@@ -12482,20 +12598,24 @@
         <v>84</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="20">
+      <c r="E5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="F5" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="F5" s="30" t="str">
+      <c r="G5" s="30"/>
+      <c r="H5" s="30" t="str">
         <f t="shared" si="0"/>
         <v>TA04 - Develop Networks</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>86</v>
       </c>
@@ -12503,20 +12623,24 @@
         <v>87</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>1804</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="20">
+      <c r="E6" s="20">
         <v>5</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="F6" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="30" t="str">
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="str">
         <f t="shared" si="0"/>
         <v>TA05 - Microtargeting</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>89</v>
       </c>
@@ -12524,20 +12648,24 @@
         <v>90</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="20">
+      <c r="E7" s="20">
         <v>6</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="30" t="str">
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="str">
         <f t="shared" si="0"/>
         <v>TA06 - Develop Content</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
         <v>92</v>
       </c>
@@ -12545,20 +12673,24 @@
         <v>93</v>
       </c>
       <c r="C8" s="24" t="s">
+        <v>1806</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="20">
+      <c r="E8" s="20">
         <v>7</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="F8" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="30" t="str">
+      <c r="G8" s="30"/>
+      <c r="H8" s="30" t="str">
         <f t="shared" si="0"/>
         <v>TA07 - Channel Selection</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
@@ -12566,99 +12698,111 @@
         <v>96</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="20">
+      <c r="E9" s="20">
         <v>8</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="F9" s="30" t="str">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30" t="str">
         <f t="shared" si="0"/>
         <v>TA08 - Pump Priming</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="20">
+      <c r="E10" s="20">
         <v>9</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="30" t="str">
+      <c r="G10" s="30"/>
+      <c r="H10" s="30" t="str">
         <f t="shared" si="0"/>
         <v>TA09 - Exposure</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
         <v>101</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="20">
+      <c r="E11" s="20">
         <v>10</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="F11" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="30" t="str">
+      <c r="G11" s="30"/>
+      <c r="H11" s="30" t="str">
         <f t="shared" si="0"/>
         <v>TA10 - Go Physical</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="20">
+      <c r="E12" s="20">
         <v>11</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="30" t="str">
+      <c r="G12" s="30"/>
+      <c r="H12" s="30" t="str">
         <f t="shared" si="0"/>
         <v>TA11 - Persistence</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
         <v>107</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="20">
+      <c r="E13" s="20">
         <v>12</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="F13" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="30" t="str">
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="str">
         <f t="shared" si="0"/>
         <v>TA12 - Measure Effectiveness</v>
       </c>
@@ -12677,24 +12821,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ65"/>
+  <dimension ref="A1:AML65"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7" style="93" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="93" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="92.33203125" style="93" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" style="93" customWidth="1"/>
-    <col min="6" max="1024" width="16.33203125" style="93"/>
-    <col min="1025" max="16384" width="16.33203125" style="94"/>
+    <col min="2" max="3" width="23.6640625" style="93" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="93" customWidth="1"/>
+    <col min="5" max="6" width="92.33203125" style="93" customWidth="1"/>
+    <col min="7" max="7" width="35.83203125" style="93" customWidth="1"/>
+    <col min="8" max="1026" width="16.33203125" style="93"/>
+    <col min="1027" max="16384" width="16.33203125" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>1421</v>
       </c>
@@ -12702,1163 +12846,1297 @@
         <v>57</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G1" s="40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>111</v>
       </c>
       <c r="B2" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="E2" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="95" t="str">
-        <f t="shared" ref="E2:E33" si="0">A2&amp;" - "&amp;B2</f>
+      <c r="F2" s="102"/>
+      <c r="G2" s="95" t="str">
+        <f t="shared" ref="G2:G33" si="0">A2&amp;" - "&amp;B2</f>
         <v>T0001 - 5Ds (dismiss, distort, distract, dismay, divide)</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="86" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="86"/>
+      <c r="D3" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="E3" s="89" t="s">
         <v>1539</v>
       </c>
-      <c r="E3" s="95" t="str">
+      <c r="F3" s="102"/>
+      <c r="G3" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0002 - Facilitate State Propaganda</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>116</v>
       </c>
       <c r="B4" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="E4" s="89" t="s">
         <v>1540</v>
       </c>
-      <c r="E4" s="95" t="str">
+      <c r="F4" s="102"/>
+      <c r="G4" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0003 - Leverage Existing Narratives</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="124" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="124" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>118</v>
       </c>
       <c r="B5" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="86"/>
+      <c r="D5" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="E5" s="89" t="s">
         <v>1541</v>
       </c>
-      <c r="E5" s="95" t="str">
+      <c r="F5" s="102"/>
+      <c r="G5" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0004 - Competing Narratives</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="86"/>
+      <c r="D6" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="E6" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="95" t="str">
+      <c r="F6" s="102"/>
+      <c r="G6" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0005 - Center of Gravity Analysis</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="98" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="98" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>123</v>
       </c>
       <c r="B7" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="86"/>
+      <c r="D7" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="E7" s="89" t="s">
         <v>1542</v>
       </c>
-      <c r="E7" s="95" t="str">
+      <c r="F7" s="102"/>
+      <c r="G7" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0006 - Create Master Narratives</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="89" t="s">
+      <c r="E8" s="89" t="s">
         <v>1543</v>
       </c>
-      <c r="E8" s="95" t="str">
+      <c r="F8" s="102"/>
+      <c r="G8" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0007 - Create fake Social Media Profiles / Pages / Groups</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="86"/>
+      <c r="D9" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="E9" s="89" t="s">
         <v>1544</v>
       </c>
-      <c r="E9" s="95" t="str">
+      <c r="F9" s="102"/>
+      <c r="G9" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0008 - Create fake or imposter news sites</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
         <v>129</v>
       </c>
       <c r="B10" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="86"/>
+      <c r="D10" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="E10" s="89" t="s">
         <v>1545</v>
       </c>
-      <c r="E10" s="95" t="str">
+      <c r="F10" s="102"/>
+      <c r="G10" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0009 - Create fake experts</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="109" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="109" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
         <v>131</v>
       </c>
       <c r="B11" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="86"/>
+      <c r="D11" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="E11" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="95" t="str">
+      <c r="F11" s="102"/>
+      <c r="G11" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0010 - Cultivate ignorant agents</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
       <c r="B12" s="86" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="89" t="s">
+      <c r="E12" s="89" t="s">
         <v>1546</v>
       </c>
-      <c r="E12" s="95" t="str">
+      <c r="F12" s="102"/>
+      <c r="G12" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0011 - Hijack legitimate account</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
         <v>136</v>
       </c>
       <c r="B13" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="86"/>
+      <c r="D13" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="E13" s="89" t="s">
         <v>1547</v>
       </c>
-      <c r="E13" s="95" t="str">
+      <c r="F13" s="102"/>
+      <c r="G13" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0012 - Use concealment</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>138</v>
       </c>
       <c r="B14" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="86"/>
+      <c r="D14" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="E14" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="E14" s="95" t="str">
+      <c r="F14" s="95"/>
+      <c r="G14" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0013 - Create fake websites</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
         <v>141</v>
       </c>
       <c r="B15" s="86" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="86"/>
+      <c r="D15" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="E15" s="89" t="s">
         <v>1548</v>
       </c>
-      <c r="E15" s="95" t="str">
+      <c r="F15" s="102"/>
+      <c r="G15" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0014 - Create funding campaigns</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="122" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="122" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
         <v>143</v>
       </c>
       <c r="B16" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="86"/>
+      <c r="D16" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="E16" s="89" t="s">
         <v>1549</v>
       </c>
-      <c r="E16" s="95" t="str">
+      <c r="F16" s="102"/>
+      <c r="G16" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0015 - Create hashtag</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
         <v>145</v>
       </c>
       <c r="B17" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="86"/>
+      <c r="D17" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="E17" s="89" t="s">
         <v>1550</v>
       </c>
-      <c r="E17" s="95" t="str">
+      <c r="F17" s="102"/>
+      <c r="G17" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0016 - Clickbait</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
         <v>147</v>
       </c>
       <c r="B18" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="86"/>
+      <c r="D18" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="E18" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="E18" s="95" t="str">
+      <c r="F18" s="102"/>
+      <c r="G18" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0017 - Promote online funding</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="29" t="s">
         <v>150</v>
       </c>
       <c r="B19" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="86"/>
+      <c r="D19" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="E19" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="E19" s="95" t="str">
+      <c r="F19" s="102"/>
+      <c r="G19" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0018 - Paid targeted ads</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="29" t="s">
         <v>153</v>
       </c>
       <c r="B20" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="E20" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="E20" s="95" t="str">
+      <c r="F20" s="102"/>
+      <c r="G20" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0019 - Generate information pollution</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="86"/>
+      <c r="D21" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="E21" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="95" t="str">
+      <c r="F21" s="102"/>
+      <c r="G21" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0020 - Trial content</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="74" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="74" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B22" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="86"/>
+      <c r="D22" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="E22" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="95" t="str">
+      <c r="F22" s="95"/>
+      <c r="G22" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0021 - Memes</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>162</v>
       </c>
       <c r="B23" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="86"/>
+      <c r="D23" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="E23" s="91" t="s">
         <v>1551</v>
       </c>
-      <c r="E23" s="95" t="str">
+      <c r="F23" s="95"/>
+      <c r="G23" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0022 - Conspiracy narratives</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>164</v>
       </c>
       <c r="B24" s="86" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="86"/>
+      <c r="D24" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="E24" s="86" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="95" t="str">
+      <c r="F24" s="95"/>
+      <c r="G24" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0023 - Distort facts</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B25" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="86"/>
+      <c r="D25" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="E25" s="89" t="s">
         <v>1552</v>
       </c>
-      <c r="E25" s="95" t="str">
+      <c r="F25" s="102"/>
+      <c r="G25" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0024 - Create fake videos and images</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="29" t="s">
         <v>169</v>
       </c>
       <c r="B26" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="89" t="s">
+      <c r="E26" s="89" t="s">
         <v>1553</v>
       </c>
-      <c r="E26" s="95" t="str">
+      <c r="F26" s="102"/>
+      <c r="G26" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0025 - Leak altered documents</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29" t="s">
         <v>171</v>
       </c>
       <c r="B27" s="86" t="s">
         <v>172</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="86"/>
+      <c r="D27" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="89" t="s">
+      <c r="E27" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="E27" s="95" t="str">
+      <c r="F27" s="102"/>
+      <c r="G27" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0026 - Create fake research</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="82" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="29" t="s">
         <v>174</v>
       </c>
       <c r="B28" s="86" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="86"/>
+      <c r="D28" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="90" t="s">
+      <c r="E28" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="E28" s="95" t="str">
+      <c r="F28" s="95"/>
+      <c r="G28" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0027 - Adapt existing narratives</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="136" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29" t="s">
         <v>177</v>
       </c>
       <c r="B29" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="86"/>
+      <c r="D29" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="E29" s="91" t="s">
         <v>179</v>
       </c>
-      <c r="E29" s="95" t="str">
+      <c r="F29" s="95"/>
+      <c r="G29" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0028 - Create competing narratives</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29" t="s">
         <v>180</v>
       </c>
       <c r="B30" s="86" t="s">
         <v>181</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="86"/>
+      <c r="D30" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="E30" s="89" t="s">
         <v>1554</v>
       </c>
-      <c r="E30" s="95" t="str">
+      <c r="F30" s="102"/>
+      <c r="G30" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0029 - Manipulate online polls</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="29" t="s">
         <v>182</v>
       </c>
       <c r="B31" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="86"/>
+      <c r="D31" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="86" t="s">
+      <c r="E31" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="E31" s="95" t="str">
+      <c r="F31" s="95"/>
+      <c r="G31" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0030 - Backstop personas</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29" t="s">
         <v>185</v>
       </c>
       <c r="B32" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="86"/>
+      <c r="D32" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="90" t="s">
+      <c r="E32" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="95" t="str">
+      <c r="F32" s="95"/>
+      <c r="G32" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0031 - YouTube</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="29" t="s">
         <v>188</v>
       </c>
       <c r="B33" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="86"/>
+      <c r="D33" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="95" t="s">
+      <c r="E33" s="95" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="95" t="str">
+      <c r="F33" s="95"/>
+      <c r="G33" s="95" t="str">
         <f t="shared" si="0"/>
         <v>T0032 - Reddit</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="29" t="s">
         <v>191</v>
       </c>
       <c r="B34" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="86"/>
+      <c r="D34" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="E34" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="E34" s="95" t="str">
-        <f t="shared" ref="E34:E65" si="1">A34&amp;" - "&amp;B34</f>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95" t="str">
+        <f t="shared" ref="G34:G65" si="1">A34&amp;" - "&amp;B34</f>
         <v>T0033 - Instagram</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="29" t="s">
         <v>194</v>
       </c>
       <c r="B35" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="86"/>
+      <c r="D35" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D35" s="95" t="s">
+      <c r="E35" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="E35" s="95" t="str">
+      <c r="F35" s="95"/>
+      <c r="G35" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0034 - LinkedIn</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="s">
         <v>197</v>
       </c>
       <c r="B36" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="C36" s="86" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="95" t="s">
+      <c r="E36" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="E36" s="95" t="str">
+      <c r="F36" s="95"/>
+      <c r="G36" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0035 - Pinterest</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="29" t="s">
         <v>200</v>
       </c>
       <c r="B37" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="86"/>
+      <c r="D37" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="95" t="s">
+      <c r="E37" s="95" t="s">
         <v>202</v>
       </c>
-      <c r="E37" s="95" t="str">
+      <c r="F37" s="95"/>
+      <c r="G37" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0036 - WhatsApp</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="29" t="s">
         <v>203</v>
       </c>
       <c r="B38" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="86"/>
+      <c r="D38" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="95" t="s">
+      <c r="E38" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="95" t="str">
+      <c r="F38" s="95"/>
+      <c r="G38" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0037 - Facebook</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="29" t="s">
         <v>206</v>
       </c>
       <c r="B39" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="86"/>
+      <c r="D39" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="91" t="s">
+      <c r="E39" s="91" t="s">
         <v>208</v>
       </c>
-      <c r="E39" s="95" t="str">
+      <c r="F39" s="95"/>
+      <c r="G39" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0038 - Twitter</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="29" t="s">
         <v>209</v>
       </c>
       <c r="B40" s="86" t="s">
         <v>210</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="86"/>
+      <c r="D40" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="89" t="s">
+      <c r="E40" s="89" t="s">
         <v>211</v>
       </c>
-      <c r="E40" s="95" t="str">
+      <c r="F40" s="102"/>
+      <c r="G40" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0039 - Bait legitimate influencers</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
         <v>212</v>
       </c>
       <c r="B41" s="86" t="s">
         <v>213</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="86"/>
+      <c r="D41" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="89" t="s">
+      <c r="E41" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="E41" s="95" t="str">
+      <c r="F41" s="102"/>
+      <c r="G41" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0040 - Demand unsurmountable proof</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="44.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="44.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
         <v>215</v>
       </c>
       <c r="B42" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="86"/>
+      <c r="D42" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="89" t="s">
+      <c r="E42" s="89" t="s">
         <v>217</v>
       </c>
-      <c r="E42" s="95" t="str">
+      <c r="F42" s="102"/>
+      <c r="G42" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0041 - Deny involvement</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="141" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="29" t="s">
         <v>218</v>
       </c>
       <c r="B43" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="86"/>
+      <c r="D43" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="89" t="s">
+      <c r="E43" s="89" t="s">
         <v>1568</v>
       </c>
-      <c r="E43" s="95" t="str">
+      <c r="F43" s="102"/>
+      <c r="G43" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0042 - Kernel of Truth</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="46" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="29" t="s">
         <v>220</v>
       </c>
       <c r="B44" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="86"/>
+      <c r="D44" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="E44" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="E44" s="95" t="str">
+      <c r="F44" s="95"/>
+      <c r="G44" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0043 - Use SMS/ WhatsApp/ Chat apps</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="29" t="s">
         <v>223</v>
       </c>
       <c r="B45" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="86"/>
+      <c r="D45" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D45" s="89" t="s">
+      <c r="E45" s="89" t="s">
         <v>1555</v>
       </c>
-      <c r="E45" s="95" t="str">
+      <c r="F45" s="102"/>
+      <c r="G45" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0044 - Seed distortions</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="26.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="29" t="s">
         <v>225</v>
       </c>
       <c r="B46" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="86"/>
+      <c r="D46" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D46" s="86" t="s">
+      <c r="E46" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="E46" s="95" t="str">
+      <c r="F46" s="95"/>
+      <c r="G46" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0045 - Use fake experts</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="29.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="29.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="29" t="s">
         <v>228</v>
       </c>
       <c r="B47" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="86"/>
+      <c r="D47" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="89" t="s">
+      <c r="E47" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="E47" s="95" t="str">
+      <c r="F47" s="102"/>
+      <c r="G47" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0046 - Search Engine Optimization</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="29" t="s">
         <v>231</v>
       </c>
       <c r="B48" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="C48" s="86" t="s">
+      <c r="C48" s="86"/>
+      <c r="D48" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="86" t="s">
+      <c r="E48" s="86" t="s">
         <v>1556</v>
       </c>
-      <c r="E48" s="95" t="str">
+      <c r="F48" s="95"/>
+      <c r="G48" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0047 - Muzzle social media as a political force</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="29" t="s">
         <v>233</v>
       </c>
       <c r="B49" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="86"/>
+      <c r="D49" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="89" t="s">
+      <c r="E49" s="89" t="s">
         <v>1557</v>
       </c>
-      <c r="E49" s="95" t="str">
+      <c r="F49" s="102"/>
+      <c r="G49" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0048 - Cow online opinion leaders</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="29" t="s">
         <v>235</v>
       </c>
       <c r="B50" s="86" t="s">
         <v>236</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="86"/>
+      <c r="D50" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="89" t="s">
+      <c r="E50" s="89" t="s">
         <v>1558</v>
       </c>
-      <c r="E50" s="95" t="str">
+      <c r="F50" s="102"/>
+      <c r="G50" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0049 - Flooding</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="29" t="s">
         <v>237</v>
       </c>
       <c r="B51" s="86" t="s">
         <v>238</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="86"/>
+      <c r="D51" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="89" t="s">
+      <c r="E51" s="89" t="s">
         <v>1559</v>
       </c>
-      <c r="E51" s="95" t="str">
+      <c r="F51" s="102"/>
+      <c r="G51" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0050 - Cheerleading domestic social media ops</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="29" t="s">
         <v>239</v>
       </c>
       <c r="B52" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="86" t="s">
+      <c r="C52" s="86"/>
+      <c r="D52" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="86" t="s">
+      <c r="E52" s="86" t="s">
         <v>1560</v>
       </c>
-      <c r="E52" s="95" t="str">
+      <c r="F52" s="95"/>
+      <c r="G52" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0051 - Fabricate social media comment</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="35" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="29" t="s">
         <v>241</v>
       </c>
       <c r="B53" s="86" t="s">
         <v>242</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="86"/>
+      <c r="D53" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="92" t="s">
+      <c r="E53" s="92" t="s">
         <v>1561</v>
       </c>
-      <c r="E53" s="95" t="str">
+      <c r="F53" s="103"/>
+      <c r="G53" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0052 - Tertiary sites amplify news</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="74.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="74.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="29" t="s">
         <v>243</v>
       </c>
       <c r="B54" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="86" t="s">
+      <c r="C54" s="86"/>
+      <c r="D54" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D54" s="89" t="s">
+      <c r="E54" s="89" t="s">
         <v>1562</v>
       </c>
-      <c r="E54" s="95" t="str">
+      <c r="F54" s="102"/>
+      <c r="G54" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0053 - Twitter trolls amplify and manipulate</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="74.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="74.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="29" t="s">
         <v>245</v>
       </c>
       <c r="B55" s="86" t="s">
         <v>246</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="86"/>
+      <c r="D55" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D55" s="89" t="s">
+      <c r="E55" s="89" t="s">
         <v>1563</v>
       </c>
-      <c r="E55" s="95" t="str">
+      <c r="F55" s="102"/>
+      <c r="G55" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0054 - Twitter bots amplify</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="29.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="29.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="29" t="s">
         <v>247</v>
       </c>
       <c r="B56" s="86" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="86" t="s">
+      <c r="C56" s="86"/>
+      <c r="D56" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D56" s="89" t="s">
+      <c r="E56" s="89" t="s">
         <v>1564</v>
       </c>
-      <c r="E56" s="95" t="str">
+      <c r="F56" s="102"/>
+      <c r="G56" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0055 - Use hashtag</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="38.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="29" t="s">
         <v>249</v>
       </c>
       <c r="B57" s="86" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="86"/>
+      <c r="D57" s="86" t="s">
         <v>98</v>
       </c>
-      <c r="D57" s="86" t="s">
+      <c r="E57" s="86" t="s">
         <v>1565</v>
       </c>
-      <c r="E57" s="95" t="str">
+      <c r="F57" s="95"/>
+      <c r="G57" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0056 - Dedicated channels disseminate information pollution</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="29" t="s">
         <v>251</v>
       </c>
       <c r="B58" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="86" t="s">
+      <c r="C58" s="86"/>
+      <c r="D58" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="D58" s="89" t="s">
+      <c r="E58" s="89" t="s">
         <v>1566</v>
       </c>
-      <c r="E58" s="95" t="str">
+      <c r="F58" s="102"/>
+      <c r="G58" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0057 - Organise remote rallies and events</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="29" t="s">
         <v>253</v>
       </c>
       <c r="B59" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="86" t="s">
+      <c r="C59" s="86"/>
+      <c r="D59" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="89" t="s">
+      <c r="E59" s="89" t="s">
         <v>255</v>
       </c>
-      <c r="E59" s="95" t="str">
+      <c r="F59" s="102"/>
+      <c r="G59" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0058 - Legacy web content</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="61" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="29" t="s">
         <v>256</v>
       </c>
       <c r="B60" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="C60" s="86" t="s">
+      <c r="C60" s="86"/>
+      <c r="D60" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D60" s="86" t="s">
+      <c r="E60" s="86" t="s">
         <v>1567</v>
       </c>
-      <c r="E60" s="95" t="str">
+      <c r="F60" s="95"/>
+      <c r="G60" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0059 - Play the long game</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="29" t="s">
         <v>258</v>
       </c>
       <c r="B61" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="C61" s="86" t="s">
+      <c r="C61" s="86"/>
+      <c r="D61" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="D61" s="86" t="s">
+      <c r="E61" s="86" t="s">
         <v>260</v>
       </c>
-      <c r="E61" s="95" t="str">
+      <c r="F61" s="95"/>
+      <c r="G61" s="95" t="str">
         <f t="shared" si="1"/>
         <v>T0060 - Continue to amplify</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="29" t="s">
         <v>261</v>
       </c>
       <c r="B62" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="C62" s="89" t="s">
+      <c r="C62" s="89"/>
+      <c r="D62" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="D62" s="89" t="s">
+      <c r="E62" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="E62" s="91" t="str">
+      <c r="F62" s="104"/>
+      <c r="G62" s="91" t="str">
         <f t="shared" si="1"/>
         <v>T0061 - Sell merchandising</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="29" t="s">
         <v>264</v>
       </c>
       <c r="B63" s="89" t="s">
         <v>265</v>
       </c>
-      <c r="C63" s="89" t="s">
+      <c r="C63" s="89"/>
+      <c r="D63" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="D63" s="89" t="s">
+      <c r="E63" s="89" t="s">
         <v>1485</v>
       </c>
-      <c r="E63" s="86" t="str">
+      <c r="F63" s="89"/>
+      <c r="G63" s="86" t="str">
         <f t="shared" si="1"/>
         <v>T0062 - Behaviour changes</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="29" t="s">
         <v>266</v>
       </c>
       <c r="B64" s="89" t="s">
         <v>267</v>
       </c>
-      <c r="C64" s="89" t="s">
+      <c r="C64" s="89"/>
+      <c r="D64" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="D64" s="89" t="s">
+      <c r="E64" s="89" t="s">
         <v>1486</v>
       </c>
-      <c r="E64" s="86" t="str">
+      <c r="F64" s="89"/>
+      <c r="G64" s="86" t="str">
         <f t="shared" si="1"/>
         <v>T0063 - Message reach</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="14.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="29" t="s">
         <v>268</v>
       </c>
       <c r="B65" s="89" t="s">
         <v>269</v>
       </c>
-      <c r="C65" s="89" t="s">
+      <c r="C65" s="89"/>
+      <c r="D65" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="89" t="s">
+      <c r="E65" s="89" t="s">
         <v>1487</v>
       </c>
-      <c r="E65" s="86" t="str">
+      <c r="F65" s="89"/>
+      <c r="G65" s="86" t="str">
         <f t="shared" si="1"/>
         <v>T0064 - Social media engagement</v>
       </c>
@@ -13874,21 +14152,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10227DA0-E6E4-A64F-BDF9-1BDD39A1750F}">
-  <dimension ref="A1:AMI4"/>
+  <dimension ref="A1:AMK4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="27" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>1421</v>
       </c>
@@ -13896,13 +14174,17 @@
         <v>57</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -14920,48 +15202,50 @@
       <c r="AMG1" s="1"/>
       <c r="AMH1" s="1"/>
       <c r="AMI1" s="1"/>
-    </row>
-    <row r="2" spans="1:1023" ht="14" x14ac:dyDescent="0.15">
+      <c r="AMJ1" s="1"/>
+      <c r="AMK1" s="1"/>
+    </row>
+    <row r="2" spans="1:1025" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="94" t="s">
         <v>1690</v>
       </c>
       <c r="B2" t="s">
         <v>1403</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1406</v>
       </c>
-      <c r="D2" t="str">
+      <c r="F2" t="str">
         <f>A2&amp;" - "&amp;B2</f>
         <v>FW01 - AMITT Red</v>
       </c>
     </row>
-    <row r="3" spans="1:1023" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1025" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="94" t="s">
         <v>1691</v>
       </c>
       <c r="B3" t="s">
         <v>1404</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1407</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D4" si="0">A3&amp;" - "&amp;B3</f>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F4" si="0">A3&amp;" - "&amp;B3</f>
         <v>FW02 - AMITT Blue</v>
       </c>
     </row>
-    <row r="4" spans="1:1023" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1025" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="94" t="s">
         <v>1692</v>
       </c>
       <c r="B4" t="s">
         <v>1405</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1408</v>
       </c>
-      <c r="D4" t="str">
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>FW03 - AMITT Green</v>
       </c>
@@ -14976,24 +15260,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMK43"/>
+  <dimension ref="A1:AMM43"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="1"/>
-    <col min="2" max="2" width="33.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="1"/>
-    <col min="4" max="4" width="34.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
-    <col min="7" max="1025" width="16.33203125" style="1"/>
+    <col min="2" max="3" width="33.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1"/>
+    <col min="5" max="6" width="34.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="1" customWidth="1"/>
+    <col min="9" max="1027" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>1421</v>
       </c>
@@ -15001,814 +15285,986 @@
         <v>57</v>
       </c>
       <c r="C1" s="29" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="F1" s="29" t="s">
+        <v>1795</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>1402</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="H1" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>270</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24" t="s">
         <v>1690</v>
       </c>
-      <c r="F2" s="24" t="str">
-        <f t="shared" ref="F2:F43" si="0">A2&amp;" - "&amp;B2</f>
+      <c r="H2" s="24" t="str">
+        <f t="shared" ref="H2:H43" si="0">A2&amp;" - "&amp;B2</f>
         <v>TK0001 - Goal setting</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>273</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="20" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F3" s="24" t="str">
+      <c r="H3" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0002 - Population research / audience analysis (centre of gravity)</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>275</v>
       </c>
       <c r="B4" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="20" t="s">
+        <v>1809</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F4" s="24" t="str">
+      <c r="H4" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0003 - Campaign design (objective design)</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>277</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="20" t="s">
+        <v>1810</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F5" s="24" t="str">
+      <c r="H5" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0004 - Identify target subgroups</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>279</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="72" t="s">
+      <c r="E6" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F6" s="20"/>
+      <c r="G6" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F6" s="24" t="str">
+      <c r="H6" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0005 - Analyse subgroups</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>281</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F7" s="24" t="str">
+      <c r="H7" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0006 - create master narratives</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
         <v>283</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F8" s="24" t="str">
+      <c r="H8" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0007 - Decide on techniques (4Ds etc)</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
         <v>285</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F9" s="24" t="str">
+      <c r="H9" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0008 - Create subnarratives</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="29" t="s">
         <v>287</v>
       </c>
       <c r="B10" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F10" s="24" t="str">
+      <c r="H10" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0009 - 4chan/8chan coordinating content</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="29" t="s">
         <v>289</v>
       </c>
       <c r="B11" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F11" s="24" t="str">
+      <c r="H11" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0010 - Create personas</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="29" t="s">
         <v>291</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="72" t="s">
+      <c r="E12" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F12" s="24" t="str">
+      <c r="H12" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0011 - Recruit contractors</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="29" t="s">
         <v>293</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F13" s="24" t="str">
+      <c r="H13" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0012 - Recruit partisans</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>295</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F14" s="24" t="str">
+      <c r="H14" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0013 - find influencers</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="29" t="s">
         <v>297</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F15" s="24" t="str">
+      <c r="H15" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0014 - Network building</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="29" t="s">
         <v>299</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F16" s="24" t="str">
+      <c r="H16" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0015 - Network infiltration</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="29" t="s">
         <v>301</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="72" t="s">
+      <c r="E17" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F17" s="24" t="str">
+      <c r="H17" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0016 - identify targets - susceptible audience members in networks</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="29" t="s">
         <v>303</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F18" s="24" t="str">
+      <c r="H18" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0017 - content creation</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="29" t="s">
         <v>305</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F19" s="24" t="str">
+      <c r="H19" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0018 - content appropriation</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="29" t="s">
         <v>307</v>
       </c>
       <c r="B20" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="72" t="s">
+      <c r="E20" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F20" s="24" t="str">
+      <c r="H20" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0019 - anchor trust / credibility</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>309</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F21" s="24" t="str">
+      <c r="H21" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0020 - insert themes</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="29" t="s">
         <v>311</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F22" s="24" t="str">
+      <c r="H22" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0021 - deamplification (suppression, censoring)</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="29" t="s">
         <v>313</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>314</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F23" s="24" t="str">
+      <c r="H23" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0022 - amplification</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>315</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="24"/>
+      <c r="D24" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="72" t="s">
+      <c r="E24" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F24" s="24" t="str">
+      <c r="H24" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0023 - retention</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="29" t="s">
         <v>317</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="72" t="s">
+      <c r="E25" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F25" s="24" t="str">
+      <c r="H25" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0024 - customer relationship</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="29" t="s">
         <v>319</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="24"/>
+      <c r="D26" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F26" s="24" t="str">
+      <c r="H26" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0025 - advocacy/ zealotry</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="29" t="s">
         <v>321</v>
       </c>
       <c r="B27" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="24"/>
+      <c r="D27" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F27" s="24" t="str">
+      <c r="H27" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0026 - conversion</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="29" t="s">
         <v>323</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="72" t="s">
+      <c r="E28" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F28" s="24" t="str">
+      <c r="H28" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0027 - keep recruiting/prospecting</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="29" t="s">
         <v>325</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F29" s="24" t="str">
+      <c r="H29" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0028 - evaluation</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="29" t="s">
         <v>327</v>
       </c>
       <c r="B30" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="72" t="s">
+      <c r="E30" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F30" s="24" t="str">
+      <c r="H30" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0029 - post-mortem</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="29" t="s">
         <v>329</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="72" t="s">
         <v>1690</v>
       </c>
-      <c r="F31" s="24" t="str">
+      <c r="H31" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0030 - after-action analysis</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="29" t="s">
         <v>1409</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="F32" s="105"/>
+      <c r="G32" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F32" s="24" t="str">
+      <c r="H32" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0031 - OPSEC for TA01</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="29" t="s">
         <v>1410</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F33" s="24" t="str">
+      <c r="H33" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0032 - OPSEC for TA02</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="29" t="s">
         <v>1411</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F34" s="24" t="str">
+      <c r="H34" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0033 - OPSEC for TA03</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="29" t="s">
         <v>1412</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F35" s="24" t="str">
+      <c r="H35" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0034 - OPSEC for TA04</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="29" t="s">
         <v>1413</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F36" s="24" t="str">
+      <c r="H36" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0035 - OPSEC for TA05</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="29" t="s">
         <v>1414</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F37" s="24" t="str">
+      <c r="H37" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0036 - OPSEC for TA06</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="29" t="s">
         <v>1415</v>
       </c>
       <c r="B38" s="24" t="s">
         <v>337</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F38" s="24" t="str">
+      <c r="H38" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0037 - OPSEC for TA07</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="29" t="s">
         <v>1416</v>
       </c>
       <c r="B39" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D39" s="20"/>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F39" s="24" t="str">
+      <c r="H39" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0038 - OPSEC for TA08</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="29" t="s">
         <v>1417</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F40" s="24" t="str">
+      <c r="H40" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0039 - OPSEC for TA09</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="29" t="s">
         <v>1418</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="24"/>
+      <c r="D41" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F41" s="24" t="str">
+      <c r="H41" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0040 - OPSEC for TA10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
         <v>1419</v>
       </c>
       <c r="B42" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="24"/>
+      <c r="D42" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F42" s="24" t="str">
+      <c r="H42" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0041 - OPSEC for TA11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="29" t="s">
         <v>1420</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="20"/>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="F43" s="24" t="str">
+      <c r="H43" s="24" t="str">
         <f t="shared" si="0"/>
         <v>TK0042 - OPSEC for TA12</v>
       </c>
